--- a/data/eatwhat.xlsx
+++ b/data/eatwhat.xlsx
@@ -5,21 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\WeChat Files\leg0200\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\eatwhat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="config" sheetId="1" r:id="rId1"/>
+    <sheet name="food" sheetId="1" r:id="rId1"/>
+    <sheet name="drink" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="218">
   <si>
     <t>id</t>
   </si>
@@ -1052,6 +1053,62 @@
         <scheme val="minor"/>
       </rPr>
       <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝士太芒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大号芒果杯</t>
+  </si>
+  <si>
+    <t>百香果益力多</t>
+  </si>
+  <si>
+    <t>酸酸的，百香果的籽可以吃</t>
+  </si>
+  <si>
+    <t>云顶新茶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Royaltea皇茶</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0001_01</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1396,19 +1453,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.125" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="4.75" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="5" max="5" width="64.875" customWidth="1"/>
-    <col min="6" max="6" width="4.125" customWidth="1"/>
-    <col min="7" max="7" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="84.875" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="7" max="7" width="8" customWidth="1"/>
     <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="18.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="25.125" customWidth="1"/>
@@ -2537,4 +2594,162 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="28.625" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="9" max="9" width="19.125" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="39.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>20000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3">
+        <v>13316512643</v>
+      </c>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>20001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I4">
+        <v>13823617006</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/eatwhat.xlsx
+++ b/data/eatwhat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="food" sheetId="1" r:id="rId1"/>
@@ -91,9 +91,6 @@
     <t>lifton海椰丝健身餐</t>
   </si>
   <si>
-    <t>健身餐为你挑选超低碳水和热量，瘦出一道闪电，练出腹肌马甲线，流他们一套餐的口水。</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 粤海街道科兴科学园东门一楼BG-45A滚石健身内(华夏银行) </t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>张亮麻辣烫</t>
   </si>
   <si>
-    <t>六块钱的麻辣烫还没吃够，必须得牛肉丸、金针菇、蟹柳、油条、炸腐竹。一个人也可以吃的火锅。</t>
-  </si>
-  <si>
     <t>0755-32823605</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t>哈帝斯汉堡</t>
   </si>
   <si>
-    <t>这款招牌牛肉汉堡，香脆面包里夹着浓厚牛肉饼，搭配培根、芝士、灯笼椒和经典酱，甩某劳一百条原味街好吗。</t>
-  </si>
-  <si>
     <t>0755-86950460</t>
   </si>
   <si>
@@ -142,9 +133,6 @@
     <t>连鼎香汤馆</t>
   </si>
   <si>
-    <t>老客户了。罐罐面有大虾和猪肝，虾真的超级大，罐装汤都能喝饱你。</t>
-  </si>
-  <si>
     <t>科兴科学园原味街</t>
   </si>
   <si>
@@ -157,9 +145,6 @@
     <t>十秒到云南过桥米线</t>
   </si>
   <si>
-    <t>肥牛再加米线再加泡菜再加六种配菜，一碗粉能吃到这么多哪里找哇，性价比超高。</t>
-  </si>
-  <si>
     <t>13670048456</t>
   </si>
   <si>
@@ -175,9 +160,6 @@
     <t>肯德基</t>
   </si>
   <si>
-    <t>汉堡、薯条、可乐，肯德基套餐铁三角，肉料最多的数这新奥尔良秘制酱料烤出的鸡堡，闻到味，口水已湿了裤腿。</t>
-  </si>
-  <si>
     <t xml:space="preserve">0755-26604883 </t>
   </si>
   <si>
@@ -190,9 +172,6 @@
     <t>小米姑娘</t>
   </si>
   <si>
-    <t>没有鱼的鱼香肉丝饭，酸酸甜甜的口感超下饭。每次不知道点什么餐的时候，就搬上鱼香肉丝。准没错。</t>
-  </si>
-  <si>
     <t>0755-86962055</t>
   </si>
   <si>
@@ -208,9 +187,6 @@
     <t>新明月</t>
   </si>
   <si>
-    <t>最喜欢吃他们家饺子了，皮薄馅足，金银透亮的一大碗真的叫得起明月。</t>
-  </si>
-  <si>
     <t>0755-86525969 13902465558</t>
   </si>
   <si>
@@ -226,9 +202,6 @@
     <t>味鲜生黄焖鸡米饭</t>
   </si>
   <si>
-    <t>快餐界四大巨头之一。一辈子只做鸡，你说专不专业。用砂锅焖出来的小黄鸡，让你欲罢不能。</t>
-  </si>
-  <si>
     <t>0755-26653002</t>
   </si>
   <si>
@@ -238,9 +211,6 @@
     <t>正新鸡排</t>
   </si>
   <si>
-    <t>千颂伊同款炸鸡，剪成小小块儿，加很多辣椒跟孜然，辣的人贼高兴了</t>
-  </si>
-  <si>
     <t xml:space="preserve">13713900315 </t>
   </si>
   <si>
@@ -253,9 +223,6 @@
     <t>兰州拉面</t>
   </si>
   <si>
-    <t>我们很清真，拉面够细，料香，再撒上一把香菜，四碗不下岗。</t>
-  </si>
-  <si>
     <t>13266634998</t>
   </si>
   <si>
@@ -271,9 +238,6 @@
     <t>吉野家</t>
   </si>
   <si>
-    <t>喔伊细! 配上酱油和辣椒酱直接拌牛肉饭，这种搭配不试你绝对后悔。</t>
-  </si>
-  <si>
     <t>0755-86564171/13480975954</t>
   </si>
   <si>
@@ -289,9 +253,6 @@
     <t>众品佳</t>
   </si>
   <si>
-    <t>这个字读丼Dong，盖饭的意思，超爱的肥肉加上爽口的泡菜，国产牛肉饭里的吉野家。</t>
-  </si>
-  <si>
     <t>科兴科学园</t>
   </si>
   <si>
@@ -301,9 +262,6 @@
     <t>阿泰包子</t>
   </si>
   <si>
-    <t>一蒸笼屉才能装下的大包子，面皮可真香。别看米粥虽细舀几下就看得出粥很浓呢。</t>
-  </si>
-  <si>
     <t>18301210223</t>
   </si>
   <si>
@@ -316,9 +274,6 @@
     <t>黔派羊肉粉</t>
   </si>
   <si>
-    <t>羊肉不膻,看上去虽然红彤彤，但是不会太辣。米粉也很Q滑，羊肉可是大补的哦。</t>
-  </si>
-  <si>
     <t>13510262162</t>
   </si>
   <si>
@@ -334,9 +289,6 @@
     <t>圳径面馆</t>
   </si>
   <si>
-    <t>这碗面太惊喜了，酒鬼花生米好吃，肉料和面搅拌后，跐溜一大口下去，哇，妈妈的味道。</t>
-  </si>
-  <si>
     <t>0755-86726503</t>
   </si>
   <si>
@@ -349,9 +301,6 @@
     <t>吃肉去</t>
   </si>
   <si>
-    <t>肉食主义者的食堂，手撕鸡肉川味做法，吃肉不长肉，以后就吃你。</t>
-  </si>
-  <si>
     <t xml:space="preserve">18588418815 </t>
   </si>
   <si>
@@ -364,9 +313,6 @@
     <t>八座牛杂</t>
   </si>
   <si>
-    <t>实物与图片相符甚至料更多，水晶粉加上浓牛杂汤真的是极品哦</t>
-  </si>
-  <si>
     <t>无电话</t>
   </si>
   <si>
@@ -379,9 +325,6 @@
     <t>吃个汤</t>
   </si>
   <si>
-    <t>天啦噜，汤很甜很甜，里面鸡肉很嫩很好吃 ，美容养颜，爱她就给她喝原只椰子川贝炖土鸡汤吧。</t>
-  </si>
-  <si>
     <t>0755-86540135  13728866844</t>
   </si>
   <si>
@@ -392,9 +335,6 @@
   </si>
   <si>
     <t>木马勺</t>
-  </si>
-  <si>
-    <t>辣么大的肉夹馍，满满的肉都溢出来了，浇上那卤肉汁，连馍一口咬下去，再喝点小米粥润润喉，超级赞。</t>
   </si>
   <si>
     <t xml:space="preserve">17878228319 </t>
@@ -410,9 +350,6 @@
     <t>樽上日本料理</t>
   </si>
   <si>
-    <t>各种好吃的寿司里面尤其要说这蟹棒，厚实得很，一口闷下去，完全感受到那肉的紧实和饭的嚼劲。</t>
-  </si>
-  <si>
     <t>0755-23223228</t>
   </si>
   <si>
@@ -425,9 +362,6 @@
     <t>海鲑工坊</t>
   </si>
   <si>
-    <t>三文鱼这么新鲜肯定是日本空运过来的吧，好吃到原地爆炸啦，外带系列首选。</t>
-  </si>
-  <si>
     <t>0755-89239887</t>
   </si>
   <si>
@@ -440,9 +374,6 @@
     <t>辣椒王德沿桂林米粉</t>
   </si>
   <si>
-    <t>螺蛳粉成功的终极奥秘是什么，就是连汤喝起来有股恋爱的螺蛳味，又算又臭，又，有点甜？！</t>
-  </si>
-  <si>
     <t>13528438856</t>
   </si>
   <si>
@@ -455,9 +386,6 @@
     <t>原林小品</t>
   </si>
   <si>
-    <t>鸡肉滑嫩而且还有鸡油冻，比穿的丝袜都滑，南洋标配外加老板自制马来泡菜酸辣爽口。</t>
-  </si>
-  <si>
     <t>13670044172</t>
   </si>
   <si>
@@ -473,9 +401,6 @@
     <t>赛百味</t>
   </si>
   <si>
-    <t>赛百味三明治又名“那么大三明治”，2大勺金枪鱼肉，还加了番茄片、青椒丝、生菜等素菜，荤素搭配，好吃又营养！</t>
-  </si>
-  <si>
     <t>13510240229</t>
   </si>
   <si>
@@ -488,9 +413,6 @@
     <t>金三顺紫菜包饭</t>
   </si>
   <si>
-    <t>店里真的有个金三顺在做紫菜包饭吧，不然为什么吃起来这么有食欲，吃完好满足哦。</t>
-  </si>
-  <si>
     <t>13332980410</t>
   </si>
   <si>
@@ -506,9 +428,6 @@
     <t>根味云吞</t>
   </si>
   <si>
-    <t>虾仁新鲜饱满 ，好吃到新高度，汤里多加点醋进去，老板，再来一碗。</t>
-  </si>
-  <si>
     <t>13077881083</t>
   </si>
   <si>
@@ -521,9 +440,6 @@
     <t>乐凯撒披萨</t>
   </si>
   <si>
-    <t>芝士上面撒上凤梨、玉米粒、培根。热情火辣的夏威夷风情立即点燃全身。好吃到飞起。</t>
-  </si>
-  <si>
     <t>0755-26609719</t>
   </si>
   <si>
@@ -536,9 +452,6 @@
     <t>花卷家</t>
   </si>
   <si>
-    <t>吃了这家猪耳饭，感觉听力都变好了，正宗川味小吃，油辣油辣的，好下饭。</t>
-  </si>
-  <si>
     <t xml:space="preserve">15914130082 </t>
   </si>
   <si>
@@ -551,9 +464,6 @@
     <t>李记潮汕卤味</t>
   </si>
   <si>
-    <t>广东的猪脚饭可不是吹的，猪蹄肥瘦相间，一点不腻，卤味香盖满整个科学园。</t>
-  </si>
-  <si>
     <t>15813885263</t>
   </si>
   <si>
@@ -1110,6 +1020,182 @@
       </rPr>
       <t>0001_01</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身营养餐，练出8块腹肌、马甲线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很扎实的牛肉汉堡，薯条也很厚实。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个人也可以吃的火锅，推荐牛肉丸、金针菇、蟹柳、油条、炸腐竹。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃面养胃，罐罐面里有基围虾、猪肝、火腿。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>里面有肥牛、米线、泡菜、六种配菜。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉堡、薯条、可乐。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>口味适中，上菜块，价格便宜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐香菜水饺+凉菜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡肉滑嫩、送凉茶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸鸡、啤酒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没啥可说的，都一个味。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配上酱油和辣椒酱直接拌牛肉饭。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>很大一碗肥牛。读丼jing，盖饭的意思</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肠胃不好的时候吃点很舒服。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊肉不膻，推荐尝一下凉粉。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很清淡。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡肉分量足，很香。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛杂很赞，汤很好喝。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤有点甜甜的，里面鸡肉很嫩很好吃 ，美容养颜。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西风味，肉夹馍很正宗。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>三文鱼很新鲜，晚上8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吃可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打折</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蟹棒好吃 蟹棒好吃 蟹棒好吃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸辣味，汤也挺好喝的。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减肥餐不错，蔬菜和三文鱼比较新鲜。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡肉滑嫩而且还有鸡油冻、老板自制马来泡菜酸辣爽口。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪脚饭肥而不腻。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪耳很下饭。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>味道不错，份量适合两人吃。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虾仁新鲜饱满。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢紫菜、金枪鱼、饭团混合的味道</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1453,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1556,22 +1642,22 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="I3">
         <v>18664914992</v>
       </c>
       <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
         <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1579,16 +1665,16 @@
         <v>10001</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
+      <c r="E4" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="F4">
         <v>35</v>
@@ -1597,16 +1683,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
         <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1614,16 +1700,16 @@
         <v>10002</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="F5">
         <v>18</v>
@@ -1632,16 +1718,16 @@
         <v>0</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1649,16 +1735,16 @@
         <v>10003</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="F6">
         <v>18</v>
@@ -1667,16 +1753,16 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="I6">
         <v>15712083177</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1">
@@ -1684,16 +1770,16 @@
         <v>10004</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="F7">
         <v>28</v>
@@ -1702,16 +1788,16 @@
         <v>0</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1719,16 +1805,16 @@
         <v>10005</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="F8">
         <v>18</v>
@@ -1737,16 +1823,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.5">
@@ -1754,16 +1840,16 @@
         <v>10006</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="F9">
         <v>16</v>
@@ -1772,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1789,16 +1875,16 @@
         <v>10007</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="F10">
         <v>16</v>
@@ -1807,16 +1893,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1824,16 +1910,16 @@
         <v>10008</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="F11">
         <v>18</v>
@@ -1842,16 +1928,16 @@
         <v>0</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1859,16 +1945,16 @@
         <v>10009</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" t="s">
-        <v>72</v>
+        <v>62</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="F12">
         <v>12</v>
@@ -1877,16 +1963,16 @@
         <v>0</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1894,16 +1980,16 @@
         <v>10010</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" t="s">
-        <v>77</v>
+        <v>66</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="F13">
         <v>15</v>
@@ -1912,16 +1998,16 @@
         <v>0</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1929,16 +2015,16 @@
         <v>10011</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" t="s">
-        <v>83</v>
+        <v>71</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="F14">
         <v>18</v>
@@ -1947,16 +2033,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="K14" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1964,16 +2050,16 @@
         <v>10012</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" t="s">
-        <v>89</v>
+        <v>76</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="F15">
         <v>21</v>
@@ -1982,16 +2068,16 @@
         <v>0</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="I15" s="1">
         <v>18128866707</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1999,16 +2085,16 @@
         <v>10013</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" t="s">
-        <v>93</v>
+        <v>79</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="F16">
         <v>18</v>
@@ -2017,16 +2103,16 @@
         <v>0</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="J16" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2034,16 +2120,16 @@
         <v>10014</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" t="s">
-        <v>98</v>
+        <v>83</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="F17">
         <v>25</v>
@@ -2052,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2069,16 +2155,16 @@
         <v>10015</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" t="s">
-        <v>104</v>
+        <v>88</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="F18">
         <v>18</v>
@@ -2087,16 +2173,16 @@
         <v>0</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2104,16 +2190,16 @@
         <v>10016</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" t="s">
-        <v>109</v>
+        <v>92</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -2122,16 +2208,16 @@
         <v>0</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="J19" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2139,16 +2225,16 @@
         <v>10017</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" t="s">
-        <v>114</v>
+        <v>96</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="F20">
         <v>18</v>
@@ -2157,16 +2243,16 @@
         <v>0</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="J20" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="K20" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5">
@@ -2174,16 +2260,16 @@
         <v>10018</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="F21">
         <v>28</v>
@@ -2192,16 +2278,16 @@
         <v>0</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18" customHeight="1">
@@ -2209,16 +2295,16 @@
         <v>10019</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" t="s">
-        <v>124</v>
+        <v>104</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="F22">
         <v>18</v>
@@ -2227,16 +2313,16 @@
         <v>0</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="K22" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2244,16 +2330,16 @@
         <v>10020</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" t="s">
-        <v>129</v>
+        <v>108</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="F23">
         <v>32</v>
@@ -2262,16 +2348,16 @@
         <v>0</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="J23" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="K23" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -2279,16 +2365,16 @@
         <v>10021</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" t="s">
-        <v>134</v>
+        <v>112</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="F24">
         <v>34</v>
@@ -2297,16 +2383,16 @@
         <v>0</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="J24" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="K24" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18.95" customHeight="1">
@@ -2314,16 +2400,16 @@
         <v>10022</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
-      </c>
-      <c r="E25" t="s">
-        <v>139</v>
+        <v>116</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="F25">
         <v>18</v>
@@ -2332,16 +2418,16 @@
         <v>0</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="K25" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2349,16 +2435,16 @@
         <v>10023</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>144</v>
+        <v>120</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="F26">
         <v>22</v>
@@ -2367,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="J26" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2384,16 +2470,16 @@
         <v>10024</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
-      </c>
-      <c r="E27" t="s">
-        <v>150</v>
+        <v>125</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="F27">
         <v>22</v>
@@ -2402,16 +2488,16 @@
         <v>0</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="J27" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="K27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2419,16 +2505,16 @@
         <v>10025</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
-      </c>
-      <c r="E28" t="s">
-        <v>155</v>
+        <v>129</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="F28">
         <v>30</v>
@@ -2437,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="J28" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2454,16 +2540,16 @@
         <v>10026</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" t="s">
-        <v>161</v>
+        <v>134</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>216</v>
       </c>
       <c r="F29">
         <v>18</v>
@@ -2472,16 +2558,16 @@
         <v>0</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="J29" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="K29" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2489,16 +2575,16 @@
         <v>10027</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>165</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>166</v>
+        <v>138</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="F30">
         <v>39</v>
@@ -2507,16 +2593,16 @@
         <v>0</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="K30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2524,16 +2610,16 @@
         <v>10028</v>
       </c>
       <c r="B31" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>170</v>
-      </c>
-      <c r="E31" t="s">
-        <v>171</v>
+        <v>142</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="F31">
         <v>18</v>
@@ -2542,16 +2628,16 @@
         <v>0</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="J31" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="K31" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2559,16 +2645,16 @@
         <v>10029</v>
       </c>
       <c r="B32" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>175</v>
-      </c>
-      <c r="E32" t="s">
-        <v>176</v>
+        <v>146</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="F32">
         <v>18</v>
@@ -2577,16 +2663,16 @@
         <v>0</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="J32" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="K32" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2600,7 +2686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -2691,31 +2777,31 @@
         <v>20000</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="F3">
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="I3">
         <v>13316512643</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2723,28 +2809,28 @@
         <v>20001</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="F4">
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="I4">
         <v>13823617006</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/eatwhat.xlsx
+++ b/data/eatwhat.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="219">
   <si>
     <t>id</t>
   </si>
@@ -311,9 +311,6 @@
   </si>
   <si>
     <t>八座牛杂</t>
-  </si>
-  <si>
-    <t>无电话</t>
   </si>
   <si>
     <t xml:space="preserve">科技园科兴科学园C栋G层11号铺(五洲医院) </t>
@@ -1196,6 +1193,27 @@
   </si>
   <si>
     <t>喜欢紫菜、金枪鱼、饭团混合的味道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>corePeople</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1537,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1549,16 +1567,17 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="6.5" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="84.875" customWidth="1"/>
+    <col min="5" max="5" width="49.5" customWidth="1"/>
     <col min="6" max="6" width="6.625" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
     <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="18.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="25.125" customWidth="1"/>
-    <col min="11" max="11" width="20.125" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="12" max="12" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1592,8 +1611,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1627,8 +1649,11 @@
       <c r="K2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>10000</v>
       </c>
@@ -1642,13 +1667,16 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3">
         <v>19</v>
       </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I3">
         <v>18664914992</v>
@@ -1659,8 +1687,11 @@
       <c r="K3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>10001</v>
       </c>
@@ -1674,16 +1705,16 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F4">
         <v>35</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>27</v>
@@ -1694,8 +1725,11 @@
       <c r="K4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>10002</v>
       </c>
@@ -1709,16 +1743,16 @@
         <v>31</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F5">
         <v>18</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I5" t="s">
         <v>32</v>
@@ -1729,8 +1763,11 @@
       <c r="K5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>10003</v>
       </c>
@@ -1744,16 +1781,16 @@
         <v>36</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F6">
         <v>18</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I6">
         <v>15712083177</v>
@@ -1764,8 +1801,11 @@
       <c r="K6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1">
+      <c r="L6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" customHeight="1">
       <c r="A7">
         <v>10004</v>
       </c>
@@ -1779,16 +1819,16 @@
         <v>40</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F7">
         <v>28</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>41</v>
@@ -1799,8 +1839,11 @@
       <c r="K7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>10005</v>
       </c>
@@ -1814,16 +1857,16 @@
         <v>45</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F8">
         <v>18</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>46</v>
@@ -1834,8 +1877,11 @@
       <c r="K8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5">
+      <c r="L8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5">
       <c r="A9">
         <v>10006</v>
       </c>
@@ -1849,16 +1895,16 @@
         <v>49</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F9">
         <v>16</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>50</v>
@@ -1869,8 +1915,11 @@
       <c r="K9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>10007</v>
       </c>
@@ -1884,16 +1933,16 @@
         <v>54</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F10">
         <v>16</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>55</v>
@@ -1904,8 +1953,11 @@
       <c r="K10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10008</v>
       </c>
@@ -1919,16 +1971,16 @@
         <v>59</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F11">
         <v>18</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>60</v>
@@ -1939,8 +1991,11 @@
       <c r="K11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>10009</v>
       </c>
@@ -1954,16 +2009,16 @@
         <v>62</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F12">
         <v>12</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>63</v>
@@ -1974,8 +2029,11 @@
       <c r="K12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>10010</v>
       </c>
@@ -1989,16 +2047,16 @@
         <v>66</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F13">
         <v>15</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>67</v>
@@ -2009,8 +2067,11 @@
       <c r="K13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>10011</v>
       </c>
@@ -2024,16 +2085,16 @@
         <v>71</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F14">
         <v>18</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>72</v>
@@ -2044,8 +2105,11 @@
       <c r="K14" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>10012</v>
       </c>
@@ -2059,16 +2123,16 @@
         <v>76</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F15">
         <v>21</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I15" s="1">
         <v>18128866707</v>
@@ -2079,8 +2143,11 @@
       <c r="K15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>10013</v>
       </c>
@@ -2094,16 +2161,16 @@
         <v>79</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F16">
         <v>18</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>80</v>
@@ -2114,8 +2181,11 @@
       <c r="K16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>10014</v>
       </c>
@@ -2129,16 +2199,16 @@
         <v>83</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F17">
         <v>25</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>84</v>
@@ -2149,8 +2219,11 @@
       <c r="K17" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>10015</v>
       </c>
@@ -2164,16 +2237,16 @@
         <v>88</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F18">
         <v>18</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>89</v>
@@ -2184,8 +2257,11 @@
       <c r="K18" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>10016</v>
       </c>
@@ -2199,16 +2275,16 @@
         <v>92</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F19">
         <v>18</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>93</v>
@@ -2219,8 +2295,11 @@
       <c r="K19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>10017</v>
       </c>
@@ -2234,445 +2313,481 @@
         <v>96</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F20">
         <v>18</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="I20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" t="s">
         <v>97</v>
-      </c>
-      <c r="J20" t="s">
-        <v>98</v>
       </c>
       <c r="K20" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="16.5">
+      <c r="L20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5">
       <c r="A21">
         <v>10018</v>
       </c>
       <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>99</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>100</v>
-      </c>
       <c r="E21" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F21">
         <v>28</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="K21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="18" customHeight="1">
+      <c r="L21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1">
       <c r="A22">
         <v>10019</v>
       </c>
       <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
         <v>103</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>104</v>
-      </c>
       <c r="E22" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F22">
         <v>18</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="K22" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>10020</v>
       </c>
       <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>107</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>108</v>
-      </c>
       <c r="E23" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F23">
         <v>32</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" t="s">
         <v>109</v>
-      </c>
-      <c r="J23" t="s">
-        <v>110</v>
       </c>
       <c r="K23" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>10021</v>
       </c>
       <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>111</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>112</v>
-      </c>
       <c r="E24" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F24">
         <v>34</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J24" t="s">
         <v>113</v>
-      </c>
-      <c r="J24" t="s">
-        <v>114</v>
       </c>
       <c r="K24" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="18.95" customHeight="1">
+      <c r="L24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18.95" customHeight="1">
       <c r="A25">
         <v>10022</v>
       </c>
       <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>115</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>116</v>
-      </c>
       <c r="E25" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F25">
         <v>18</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="K25" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>10023</v>
       </c>
       <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="E26" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F26">
         <v>22</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J26" t="s">
         <v>121</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>10024</v>
       </c>
       <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>124</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>125</v>
-      </c>
       <c r="E27" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F27">
         <v>22</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J27" t="s">
         <v>126</v>
-      </c>
-      <c r="J27" t="s">
-        <v>127</v>
       </c>
       <c r="K27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>10025</v>
       </c>
       <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
         <v>128</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>129</v>
-      </c>
       <c r="E28" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F28">
         <v>30</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J28" t="s">
         <v>130</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>131</v>
       </c>
-      <c r="K28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>10026</v>
       </c>
       <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
         <v>133</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>134</v>
-      </c>
       <c r="E29" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F29">
         <v>18</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J29" t="s">
         <v>135</v>
-      </c>
-      <c r="J29" t="s">
-        <v>136</v>
       </c>
       <c r="K29" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>10027</v>
       </c>
       <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
         <v>137</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>138</v>
-      </c>
       <c r="E30" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F30">
         <v>39</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I30" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="K30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>10028</v>
       </c>
       <c r="B31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
         <v>141</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>142</v>
-      </c>
       <c r="E31" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F31">
         <v>18</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J31" t="s">
         <v>143</v>
-      </c>
-      <c r="J31" t="s">
-        <v>144</v>
       </c>
       <c r="K31" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>10029</v>
       </c>
       <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>145</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>146</v>
-      </c>
       <c r="E32" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F32">
         <v>18</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J32" t="s">
         <v>147</v>
-      </c>
-      <c r="J32" t="s">
-        <v>148</v>
       </c>
       <c r="K32" t="s">
         <v>52</v>
+      </c>
+      <c r="L32">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2777,22 +2892,22 @@
         <v>20000</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F3">
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I3">
         <v>13316512643</v>
@@ -2801,7 +2916,7 @@
         <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2809,22 +2924,22 @@
         <v>20001</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F4">
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I4">
         <v>13823617006</v>

--- a/data/eatwhat.xlsx
+++ b/data/eatwhat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="food" sheetId="1" r:id="rId1"/>
@@ -322,9 +322,6 @@
     <t>吃个汤</t>
   </si>
   <si>
-    <t>0755-86540135  13728866844</t>
-  </si>
-  <si>
     <t>科苑北路科兴科学园A栋G层10号铺</t>
   </si>
   <si>
@@ -1214,6 +1211,10 @@
       </rPr>
       <t>corePeople</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0755-86540135  13728866844</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1270,16 +1271,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1557,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1571,7 +1582,7 @@
     <col min="6" max="6" width="6.625" customWidth="1"/>
     <col min="7" max="7" width="10.125" customWidth="1"/>
     <col min="8" max="8" width="16.875" customWidth="1"/>
-    <col min="9" max="9" width="18.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="42.875" style="5" customWidth="1"/>
     <col min="10" max="10" width="25.125" customWidth="1"/>
     <col min="11" max="11" width="15.625" customWidth="1"/>
     <col min="12" max="12" width="10.875" customWidth="1"/>
@@ -1602,7 +1613,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1611,8 +1622,8 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>217</v>
+      <c r="L1" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1640,7 +1651,7 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="J2" t="s">
@@ -1649,8 +1660,8 @@
       <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>218</v>
+      <c r="L2" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1667,7 +1678,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3">
         <v>19</v>
@@ -1676,9 +1687,9 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I3">
+        <v>147</v>
+      </c>
+      <c r="I3" s="6">
         <v>18664914992</v>
       </c>
       <c r="J3" t="s">
@@ -1704,8 +1715,8 @@
       <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>189</v>
+      <c r="E4" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="F4">
         <v>35</v>
@@ -1713,10 +1724,10 @@
       <c r="G4">
         <v>4.2</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="J4" t="s">
@@ -1742,8 +1753,8 @@
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>188</v>
+      <c r="E5" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="F5">
         <v>18</v>
@@ -1751,10 +1762,10 @@
       <c r="G5">
         <v>4</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J5" t="s">
@@ -1780,8 +1791,8 @@
       <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>190</v>
+      <c r="E6" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="F6">
         <v>18</v>
@@ -1789,10 +1800,10 @@
       <c r="G6">
         <v>4.3</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" s="6">
         <v>15712083177</v>
       </c>
       <c r="J6" t="s">
@@ -1818,8 +1829,8 @@
       <c r="D7" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>191</v>
+      <c r="E7" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="F7">
         <v>28</v>
@@ -1827,13 +1838,13 @@
       <c r="G7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="K7" t="s">
@@ -1856,8 +1867,8 @@
       <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>192</v>
+      <c r="E8" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="F8">
         <v>18</v>
@@ -1865,10 +1876,10 @@
       <c r="G8">
         <v>3.7</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>46</v>
       </c>
       <c r="J8" t="s">
@@ -1891,11 +1902,11 @@
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>193</v>
+      <c r="E9" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="F9">
         <v>16</v>
@@ -1903,13 +1914,13 @@
       <c r="G9">
         <v>4.3</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="H9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K9" t="s">
@@ -1932,8 +1943,8 @@
       <c r="D10" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>194</v>
+      <c r="E10" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="F10">
         <v>16</v>
@@ -1941,10 +1952,10 @@
       <c r="G10">
         <v>4</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>55</v>
       </c>
       <c r="J10" t="s">
@@ -1970,8 +1981,8 @@
       <c r="D11" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>195</v>
+      <c r="E11" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="F11">
         <v>18</v>
@@ -1979,10 +1990,10 @@
       <c r="G11">
         <v>3.9</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>60</v>
       </c>
       <c r="J11" t="s">
@@ -2008,8 +2019,8 @@
       <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>196</v>
+      <c r="E12" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="F12">
         <v>12</v>
@@ -2017,10 +2028,10 @@
       <c r="G12">
         <v>3.8</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>63</v>
       </c>
       <c r="J12" t="s">
@@ -2046,8 +2057,8 @@
       <c r="D13" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>197</v>
+      <c r="E13" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="F13">
         <v>15</v>
@@ -2055,10 +2066,10 @@
       <c r="G13">
         <v>4</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="H13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>67</v>
       </c>
       <c r="J13" t="s">
@@ -2084,8 +2095,8 @@
       <c r="D14" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>198</v>
+      <c r="E14" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="F14">
         <v>18</v>
@@ -2093,10 +2104,10 @@
       <c r="G14">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="H14" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>72</v>
       </c>
       <c r="J14" t="s">
@@ -2122,8 +2133,8 @@
       <c r="D15" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>199</v>
+      <c r="E15" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="F15">
         <v>21</v>
@@ -2131,10 +2142,10 @@
       <c r="G15">
         <v>4</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="H15" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I15" s="5">
         <v>18128866707</v>
       </c>
       <c r="J15" t="s">
@@ -2160,8 +2171,8 @@
       <c r="D16" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>200</v>
+      <c r="E16" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="F16">
         <v>18</v>
@@ -2169,10 +2180,10 @@
       <c r="G16">
         <v>4</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="H16" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>80</v>
       </c>
       <c r="J16" t="s">
@@ -2198,8 +2209,8 @@
       <c r="D17" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>201</v>
+      <c r="E17" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="F17">
         <v>25</v>
@@ -2207,10 +2218,10 @@
       <c r="G17">
         <v>4.2</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="H17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>84</v>
       </c>
       <c r="J17" t="s">
@@ -2236,8 +2247,8 @@
       <c r="D18" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>202</v>
+      <c r="E18" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="F18">
         <v>18</v>
@@ -2245,10 +2256,10 @@
       <c r="G18">
         <v>4</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="H18" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>89</v>
       </c>
       <c r="J18" t="s">
@@ -2274,8 +2285,8 @@
       <c r="D19" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>203</v>
+      <c r="E19" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -2283,10 +2294,10 @@
       <c r="G19">
         <v>3.9</v>
       </c>
-      <c r="H19" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="H19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>93</v>
       </c>
       <c r="J19" t="s">
@@ -2312,8 +2323,8 @@
       <c r="D20" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>204</v>
+      <c r="E20" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="F20">
         <v>18</v>
@@ -2321,8 +2332,8 @@
       <c r="G20">
         <v>4.2</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>166</v>
+      <c r="H20" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="J20" t="s">
         <v>97</v>
@@ -2347,8 +2358,8 @@
       <c r="D21" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>205</v>
+      <c r="E21" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="F21">
         <v>28</v>
@@ -2356,14 +2367,14 @@
       <c r="G21">
         <v>4</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="H21" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="K21" t="s">
         <v>52</v>
@@ -2377,16 +2388,16 @@
         <v>10019</v>
       </c>
       <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
         <v>102</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>206</v>
+      <c r="E22" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="F22">
         <v>18</v>
@@ -2394,14 +2405,14 @@
       <c r="G22">
         <v>3.5</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="H22" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="K22" t="s">
         <v>57</v>
@@ -2415,16 +2426,16 @@
         <v>10020</v>
       </c>
       <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>106</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>208</v>
+      <c r="E23" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="F23">
         <v>32</v>
@@ -2432,14 +2443,14 @@
       <c r="G23">
         <v>4</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="H23" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" t="s">
         <v>108</v>
-      </c>
-      <c r="J23" t="s">
-        <v>109</v>
       </c>
       <c r="K23" t="s">
         <v>74</v>
@@ -2453,16 +2464,16 @@
         <v>10021</v>
       </c>
       <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>110</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>207</v>
+      <c r="E24" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="F24">
         <v>34</v>
@@ -2470,14 +2481,14 @@
       <c r="G24">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="H24" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" t="s">
         <v>112</v>
-      </c>
-      <c r="J24" t="s">
-        <v>113</v>
       </c>
       <c r="K24" t="s">
         <v>74</v>
@@ -2491,16 +2502,16 @@
         <v>10022</v>
       </c>
       <c r="B25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>114</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>209</v>
+      <c r="E25" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="F25">
         <v>18</v>
@@ -2508,14 +2519,14 @@
       <c r="G25">
         <v>4</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="H25" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="K25" t="s">
         <v>86</v>
@@ -2529,16 +2540,16 @@
         <v>10023</v>
       </c>
       <c r="B26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>211</v>
+      <c r="E26" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="F26">
         <v>22</v>
@@ -2546,17 +2557,17 @@
       <c r="G26">
         <v>3.5</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="H26" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" t="s">
         <v>120</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="L26">
         <v>23</v>
@@ -2567,16 +2578,16 @@
         <v>10024</v>
       </c>
       <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>123</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>210</v>
+      <c r="E27" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="F27">
         <v>22</v>
@@ -2584,14 +2595,14 @@
       <c r="G27">
         <v>4</v>
       </c>
-      <c r="H27" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="I27" s="1" t="s">
+      <c r="H27" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" t="s">
         <v>125</v>
-      </c>
-      <c r="J27" t="s">
-        <v>126</v>
       </c>
       <c r="K27" t="s">
         <v>34</v>
@@ -2605,16 +2616,16 @@
         <v>10025</v>
       </c>
       <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
         <v>127</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>216</v>
+      <c r="E28" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="F28">
         <v>30</v>
@@ -2622,17 +2633,17 @@
       <c r="G28">
         <v>3.7</v>
       </c>
-      <c r="H28" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="H28" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J28" t="s">
         <v>129</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>130</v>
-      </c>
-      <c r="K28" t="s">
-        <v>131</v>
       </c>
       <c r="L28">
         <v>15</v>
@@ -2643,16 +2654,16 @@
         <v>10026</v>
       </c>
       <c r="B29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
         <v>132</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>215</v>
+      <c r="E29" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="F29">
         <v>18</v>
@@ -2660,14 +2671,14 @@
       <c r="G29">
         <v>4</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="H29" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="J29" t="s">
         <v>134</v>
-      </c>
-      <c r="J29" t="s">
-        <v>135</v>
       </c>
       <c r="K29" t="s">
         <v>69</v>
@@ -2681,16 +2692,16 @@
         <v>10027</v>
       </c>
       <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
         <v>136</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>214</v>
+      <c r="E30" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="F30">
         <v>39</v>
@@ -2698,14 +2709,14 @@
       <c r="G30">
         <v>4</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="I30" s="5" t="s">
+      <c r="H30" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="K30" t="s">
         <v>34</v>
@@ -2719,16 +2730,16 @@
         <v>10028</v>
       </c>
       <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
         <v>140</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>213</v>
+      <c r="E31" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="F31">
         <v>18</v>
@@ -2736,14 +2747,14 @@
       <c r="G31">
         <v>3.8</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="H31" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J31" t="s">
         <v>142</v>
-      </c>
-      <c r="J31" t="s">
-        <v>143</v>
       </c>
       <c r="K31" t="s">
         <v>52</v>
@@ -2757,16 +2768,16 @@
         <v>10029</v>
       </c>
       <c r="B32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>144</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>145</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>212</v>
+      <c r="E32" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="F32">
         <v>18</v>
@@ -2774,14 +2785,14 @@
       <c r="G32">
         <v>4</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="H32" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="J32" t="s">
         <v>146</v>
-      </c>
-      <c r="J32" t="s">
-        <v>147</v>
       </c>
       <c r="K32" t="s">
         <v>52</v>
@@ -2801,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -2892,22 +2903,22 @@
         <v>20000</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F3">
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I3">
         <v>13316512643</v>
@@ -2916,7 +2927,7 @@
         <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2924,22 +2935,22 @@
         <v>20001</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F4">
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I4">
         <v>13823617006</v>

--- a/data/eatwhat.xlsx
+++ b/data/eatwhat.xlsx
@@ -106,9 +106,6 @@
     <t>0755-86950460</t>
   </si>
   <si>
-    <t xml:space="preserve"> 科苑路科兴科学园原味街BG17-D </t>
-  </si>
-  <si>
     <t>西餐</t>
   </si>
   <si>
@@ -139,18 +136,12 @@
     <t xml:space="preserve">0755-26604883 </t>
   </si>
   <si>
-    <t xml:space="preserve">科技园中区科苑路15号科兴科学园G层CG17b号 </t>
-  </si>
-  <si>
     <t>鱼香肉丝饭</t>
   </si>
   <si>
     <t>0755-86962055</t>
   </si>
   <si>
-    <t>粤海高新科技园中区科苑路科兴科学园C栋G层23/24/25(腾讯食堂门口)</t>
-  </si>
-  <si>
     <t>快餐</t>
   </si>
   <si>
@@ -160,9 +151,6 @@
     <t>0755-86525969 13902465558</t>
   </si>
   <si>
-    <t xml:space="preserve">科苑路科兴科学园C栋G-03号 </t>
-  </si>
-  <si>
     <t>东北菜</t>
   </si>
   <si>
@@ -172,18 +160,12 @@
     <t>0755-26653002</t>
   </si>
   <si>
-    <t>科苑北路科兴科学园东门原味街BG04</t>
-  </si>
-  <si>
     <t>正新鸡排</t>
   </si>
   <si>
     <t xml:space="preserve">13713900315 </t>
   </si>
   <si>
-    <t xml:space="preserve">粤海街道高新科技园中区科苑路15号科兴科学园A栋G层01号铺 </t>
-  </si>
-  <si>
     <t>小吃</t>
   </si>
   <si>
@@ -193,9 +175,6 @@
     <t>13266634998</t>
   </si>
   <si>
-    <t xml:space="preserve">高新区中区科苑路科兴科学园(筷子私房菜) </t>
-  </si>
-  <si>
     <t>面食</t>
   </si>
   <si>
@@ -226,9 +205,6 @@
     <t>18301210223</t>
   </si>
   <si>
-    <t>粤海街道科苑路科兴科学园</t>
-  </si>
-  <si>
     <t>招牌羊肉粉</t>
   </si>
   <si>
@@ -247,929 +223,973 @@
     <t>0755-86726503</t>
   </si>
   <si>
-    <t>科苑路科兴科学园B栋G层05室</t>
-  </si>
-  <si>
     <t>原只椰子川贝炖土鸡汤</t>
   </si>
   <si>
-    <t>科苑北路科兴科学园A栋G层10号铺</t>
-  </si>
-  <si>
     <t>小米粥+肉夹馍</t>
   </si>
   <si>
     <t xml:space="preserve">17878228319 </t>
+  </si>
+  <si>
+    <t>火炙蟹棒寿司</t>
+  </si>
+  <si>
+    <t>0755-23223228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">科兴路科学园B1楼原味街C栋G层18A号铺 </t>
+  </si>
+  <si>
+    <t>三文鱼寿司</t>
+  </si>
+  <si>
+    <t>海鲑工坊</t>
+  </si>
+  <si>
+    <t>0755-89239887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">科兴科学园原味街A栋G层(华润万家超市旁) </t>
+  </si>
+  <si>
+    <t>原味螺蛳粉</t>
+  </si>
+  <si>
+    <t>13528438856</t>
+  </si>
+  <si>
+    <t>科兴科学园CG07</t>
+  </si>
+  <si>
+    <t>海南鸡</t>
+  </si>
+  <si>
+    <t>13670044172</t>
+  </si>
+  <si>
+    <t>东南亚口味</t>
+  </si>
+  <si>
+    <t>金枪鱼三明治</t>
+  </si>
+  <si>
+    <t>13510240229</t>
+  </si>
+  <si>
+    <t>金枪鱼紫菜包饭</t>
+  </si>
+  <si>
+    <t>金三顺紫菜包饭</t>
+  </si>
+  <si>
+    <t>13332980410</t>
+  </si>
+  <si>
+    <t>韩式</t>
+  </si>
+  <si>
+    <t>鲜虾云吞</t>
+  </si>
+  <si>
+    <t>13077881083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">科兴科学园G层臻食荟内 </t>
+  </si>
+  <si>
+    <t>6寸夏威夷披萨套餐</t>
+  </si>
+  <si>
+    <t>0755-26609719</t>
+  </si>
+  <si>
+    <t>招牌卤水猪耳饭</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15914130082 </t>
+  </si>
+  <si>
+    <t>科兴科学园B栋J层17A区</t>
+  </si>
+  <si>
+    <r>
+      <t>10001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10022</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10023</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10024</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10025</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10026</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10027</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10028</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝士太芒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大号芒果杯</t>
+  </si>
+  <si>
+    <t>百香果益力多</t>
+  </si>
+  <si>
+    <t>酸酸的，百香果的籽可以吃</t>
+  </si>
+  <si>
+    <t>Royaltea皇茶</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0001_01</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很扎实的牛肉汉堡，薯条也很厚实。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个人也可以吃的火锅，推荐牛肉丸、金针菇、蟹柳、油条、炸腐竹。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃面养胃，罐罐面里有基围虾、猪肝、火腿。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>里面有肥牛、米线、泡菜、六种配菜。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉堡、薯条、可乐。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>口味适中，上菜块，价格便宜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐香菜水饺+凉菜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡肉滑嫩、送凉茶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸鸡、啤酒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没啥可说的，都一个味。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配上酱油和辣椒酱直接拌牛肉饭。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>很大一碗肥牛。读丼jing，盖饭的意思</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肠胃不好的时候吃点很舒服。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊肉不膻，推荐尝一下凉粉。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很清淡。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤有点甜甜的，里面鸡肉很嫩很好吃 ，美容养颜。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西风味，肉夹馍很正宗。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>三文鱼很新鲜，晚上8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吃可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打折</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蟹棒好吃 蟹棒好吃 蟹棒好吃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸辣味，汤也挺好喝的。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>减肥餐不错，蔬菜和三文鱼比较新鲜。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡肉滑嫩而且还有鸡油冻、老板自制马来泡菜酸辣爽口。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪耳很下饭。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>味道不错，份量适合两人吃。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虾仁新鲜饱满。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢紫菜、金枪鱼、饭团混合的味道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>评分人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>corePeople</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0755-86540135  13728866844</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云顶新茶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈帝斯汉堡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连鼎香汤馆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十秒到云南过桥米线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肯德基</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米姑娘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新明月水饺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>味鲜生黄焖鸡米饭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正新鸡排</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉野家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>众品佳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黔派羊肉粉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>圳径面馆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃个汤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木马勺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>樽上日本料理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原林小品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣椒王德沿桂林米粉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛百味</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根味云吞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐凯撒披萨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花卷家食馆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稻香</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>口感非常赞，面里混合紫菜和猪排的味道</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪扒炒出前一 丁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荷叶排骨饭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>好吃，我朋友连续点了一周排骨饭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10031_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科兴科学园C栋3单元1层</t>
+  </si>
+  <si>
+    <t xml:space="preserve">科兴科学园原味街BG17-D </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">科兴科学园G层CG17b号 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科兴科学园C栋G层23/24/25(腾讯食堂门口)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">科兴科学园C栋G-03号 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科兴科学园东门原味街BG04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">科兴科学园A栋G层01号铺 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">科兴科学园(筷子私房菜) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科兴科学园</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科兴科学园B栋G层05室</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科兴科学园A栋G层10号铺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">科兴科学园北门A栋G层臻食荟美食广场大店-01 
 </t>
-  </si>
-  <si>
-    <t>火炙蟹棒寿司</t>
-  </si>
-  <si>
-    <t>0755-23223228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">科兴路科学园B1楼原味街C栋G层18A号铺 </t>
-  </si>
-  <si>
-    <t>三文鱼寿司</t>
-  </si>
-  <si>
-    <t>海鲑工坊</t>
-  </si>
-  <si>
-    <t>0755-89239887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">科兴科学园原味街A栋G层(华润万家超市旁) </t>
-  </si>
-  <si>
-    <t>原味螺蛳粉</t>
-  </si>
-  <si>
-    <t>13528438856</t>
-  </si>
-  <si>
-    <t>科兴科学园CG07</t>
-  </si>
-  <si>
-    <t>海南鸡</t>
-  </si>
-  <si>
-    <t>13670044172</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 科兴科学园原味街一楼</t>
-  </si>
-  <si>
-    <t>东南亚口味</t>
-  </si>
-  <si>
-    <t>金枪鱼三明治</t>
-  </si>
-  <si>
-    <t>13510240229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">科苑北路10号，科兴科学园CG25A，C3出口旁边 </t>
-  </si>
-  <si>
-    <t>金枪鱼紫菜包饭</t>
-  </si>
-  <si>
-    <t>金三顺紫菜包饭</t>
-  </si>
-  <si>
-    <t>13332980410</t>
-  </si>
-  <si>
-    <t>科苑大道科兴科学园BG-17C大食汇对面</t>
-  </si>
-  <si>
-    <t>韩式</t>
-  </si>
-  <si>
-    <t>鲜虾云吞</t>
-  </si>
-  <si>
-    <t>13077881083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">科兴科学园G层臻食荟内 </t>
-  </si>
-  <si>
-    <t>6寸夏威夷披萨套餐</t>
-  </si>
-  <si>
-    <t>0755-26609719</t>
-  </si>
-  <si>
-    <t>科技园中区科苑路15号科兴科学园C栋G层17a号的商铺</t>
-  </si>
-  <si>
-    <t>招牌卤水猪耳饭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15914130082 </t>
-  </si>
-  <si>
-    <t>科兴科学园B栋J层17A区</t>
-  </si>
-  <si>
-    <r>
-      <t>10001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10007</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10008</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10009</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10010</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10011</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10012</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10013</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10014</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10015</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10020</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10022</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10023</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10026</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10027</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10028</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>芝士太芒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>芒果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大号芒果杯</t>
-  </si>
-  <si>
-    <t>百香果益力多</t>
-  </si>
-  <si>
-    <t>酸酸的，百香果的籽可以吃</t>
-  </si>
-  <si>
-    <t>Royaltea皇茶</t>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0001_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>很扎实的牛肉汉堡，薯条也很厚实。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个人也可以吃的火锅，推荐牛肉丸、金针菇、蟹柳、油条、炸腐竹。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃面养胃，罐罐面里有基围虾、猪肝、火腿。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>里面有肥牛、米线、泡菜、六种配菜。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉堡、薯条、可乐。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>口味适中，上菜块，价格便宜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐香菜水饺+凉菜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡肉滑嫩、送凉茶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸鸡、啤酒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>没啥可说的，都一个味。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>配上酱油和辣椒酱直接拌牛肉饭。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>很大一碗肥牛。读丼jing，盖饭的意思</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>肠胃不好的时候吃点很舒服。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊肉不膻，推荐尝一下凉粉。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>很清淡。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汤有点甜甜的，里面鸡肉很嫩很好吃 ，美容养颜。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陕西风味，肉夹馍很正宗。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>三文鱼很新鲜，晚上8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>点后</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>吃可以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>打折</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蟹棒好吃 蟹棒好吃 蟹棒好吃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>酸辣味，汤也挺好喝的。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>减肥餐不错，蔬菜和三文鱼比较新鲜。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡肉滑嫩而且还有鸡油冻、老板自制马来泡菜酸辣爽口。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪耳很下饭。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>味道不错，份量适合两人吃。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>虾仁新鲜饱满。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜欢紫菜、金枪鱼、饭团混合的味道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>评分人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>corePeople</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0755-86540135  13728866844</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>经度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>纬度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>云顶新茶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈帝斯汉堡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>连鼎香汤馆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十秒到云南过桥米线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>肯德基</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小米姑娘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新明月水饺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>味鲜生黄焖鸡米饭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>正新鸡排</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉野家</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>众品佳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黔派羊肉粉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>圳径面馆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃个汤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>木马勺</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>樽上日本料理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原林小品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>辣椒王德沿桂林米粉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛百味</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>根味云吞</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>乐凯撒披萨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花卷家食馆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>稻香</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>口感非常赞，面里混合紫菜和猪排的味道</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪扒炒出前一 丁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>荷叶排骨饭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>好吃，我朋友连续点了一周排骨饭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10031_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>科兴科学园C栋3单元1层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科兴科学园原味街一楼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科兴科学园BG-17C大食汇对面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">科兴科学园CG25A，C3出口旁边 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科兴科学园C栋G层17a号的商铺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1193,6 +1213,7 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1225,7 +1246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1244,6 +1265,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1523,7 +1547,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1537,7 +1561,7 @@
     <col min="7" max="7" width="10.125" customWidth="1"/>
     <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="16" style="5" customWidth="1"/>
-    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="30.75" customWidth="1"/>
     <col min="11" max="11" width="15.625" customWidth="1"/>
     <col min="12" max="12" width="10.875" customWidth="1"/>
     <col min="13" max="13" width="19.125" customWidth="1"/>
@@ -1579,13 +1603,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="M1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="N1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1623,13 +1647,13 @@
         <v>20</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1646,7 +1670,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F3">
         <v>35</v>
@@ -1655,7 +1679,7 @@
         <v>4.2</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>23</v>
@@ -1687,10 +1711,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="F4">
         <v>18</v>
@@ -1699,16 +1723,16 @@
         <v>4</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="K4" t="s">
         <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
       </c>
       <c r="L4">
         <v>15</v>
@@ -1725,16 +1749,16 @@
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F5">
         <v>18</v>
@@ -1743,16 +1767,16 @@
         <v>4.3</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="I5" s="6">
         <v>15712083177</v>
       </c>
       <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
         <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
       </c>
       <c r="L5">
         <v>14</v>
@@ -1769,16 +1793,16 @@
         <v>10004</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="F6">
         <v>28</v>
@@ -1787,16 +1811,16 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" t="s">
         <v>35</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
       </c>
       <c r="L6">
         <v>6</v>
@@ -1813,16 +1837,16 @@
         <v>10005</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="F7">
         <v>18</v>
@@ -1831,16 +1855,16 @@
         <v>3.7</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L7">
         <v>15</v>
@@ -1857,16 +1881,16 @@
         <v>10006</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="F8">
         <v>16</v>
@@ -1875,16 +1899,16 @@
         <v>4.3</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L8">
         <v>16</v>
@@ -1901,16 +1925,16 @@
         <v>10007</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F9">
         <v>16</v>
@@ -1919,16 +1943,16 @@
         <v>4</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L9">
         <v>9</v>
@@ -1945,16 +1969,16 @@
         <v>10008</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="F10">
         <v>18</v>
@@ -1963,16 +1987,16 @@
         <v>3.9</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L10">
         <v>15</v>
@@ -1989,16 +2013,16 @@
         <v>10009</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="F11">
         <v>12</v>
@@ -2007,16 +2031,16 @@
         <v>3.8</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L11">
         <v>5</v>
@@ -2033,16 +2057,16 @@
         <v>10010</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="F12">
         <v>15</v>
@@ -2051,16 +2075,16 @@
         <v>4</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L12">
         <v>9</v>
@@ -2077,16 +2101,16 @@
         <v>10011</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F13">
         <v>18</v>
@@ -2095,16 +2119,16 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L13">
         <v>13</v>
@@ -2121,16 +2145,16 @@
         <v>10012</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F14">
         <v>21</v>
@@ -2139,16 +2163,16 @@
         <v>4</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="I14" s="5">
         <v>18128866707</v>
       </c>
       <c r="J14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L14">
         <v>8</v>
@@ -2165,16 +2189,16 @@
         <v>10013</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="F15">
         <v>18</v>
@@ -2183,16 +2207,16 @@
         <v>4</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" t="s">
-        <v>68</v>
+        <v>60</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>201</v>
       </c>
       <c r="K15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L15">
         <v>17</v>
@@ -2209,16 +2233,16 @@
         <v>10014</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="F16">
         <v>25</v>
@@ -2227,16 +2251,16 @@
         <v>4.2</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J16" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K16" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L16">
         <v>15</v>
@@ -2253,16 +2277,16 @@
         <v>10015</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="F17">
         <v>18</v>
@@ -2271,16 +2295,16 @@
         <v>4</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" t="s">
-        <v>75</v>
+        <v>66</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="K17" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L17">
         <v>20</v>
@@ -2297,16 +2321,16 @@
         <v>10018</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="F18">
         <v>28</v>
@@ -2315,16 +2339,16 @@
         <v>4</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="K18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L18">
         <v>6</v>
@@ -2341,16 +2365,16 @@
         <v>10019</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -2359,16 +2383,16 @@
         <v>3.5</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>204</v>
       </c>
       <c r="K19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="L19">
         <v>15</v>
@@ -2385,16 +2409,16 @@
         <v>10020</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F20">
         <v>32</v>
@@ -2403,16 +2427,16 @@
         <v>4</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J20" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L20">
         <v>11</v>
@@ -2429,16 +2453,16 @@
         <v>10021</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F21">
         <v>34</v>
@@ -2447,16 +2471,16 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L21">
         <v>14</v>
@@ -2473,16 +2497,16 @@
         <v>10022</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="F22">
         <v>18</v>
@@ -2491,16 +2515,16 @@
         <v>4</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="L22">
         <v>15</v>
@@ -2517,16 +2541,16 @@
         <v>10023</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -2535,16 +2559,16 @@
         <v>3.5</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="J23" t="s">
-        <v>93</v>
+        <v>81</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="L23">
         <v>23</v>
@@ -2561,16 +2585,16 @@
         <v>10024</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="F24">
         <v>22</v>
@@ -2579,16 +2603,16 @@
         <v>4</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J24" t="s">
-        <v>97</v>
+        <v>84</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="K24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L24">
         <v>12</v>
@@ -2605,16 +2629,16 @@
         <v>10025</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -2623,16 +2647,16 @@
         <v>3.7</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J25" t="s">
-        <v>101</v>
+        <v>87</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="K25" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="L25">
         <v>15</v>
@@ -2649,16 +2673,16 @@
         <v>10026</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="F26">
         <v>18</v>
@@ -2667,16 +2691,16 @@
         <v>4</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="J26" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="L26">
         <v>8</v>
@@ -2693,16 +2717,16 @@
         <v>10027</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F27">
         <v>39</v>
@@ -2711,16 +2735,16 @@
         <v>4</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="K27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L27">
         <v>15</v>
@@ -2737,16 +2761,16 @@
         <v>10028</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="F28">
         <v>18</v>
@@ -2755,16 +2779,16 @@
         <v>3.8</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="J28" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="K28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L28">
         <v>10</v>
@@ -2781,16 +2805,16 @@
         <v>10030</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="F29">
         <v>19</v>
@@ -2799,13 +2823,13 @@
         <v>4</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="J29" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="K29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L29">
         <v>6</v>
@@ -2822,16 +2846,16 @@
         <v>10031</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="F30">
         <v>18</v>
@@ -2840,13 +2864,13 @@
         <v>4.5</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="J30" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="K30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L30">
         <v>9</v>
@@ -2922,10 +2946,10 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="M1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2963,10 +2987,10 @@
         <v>20</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2974,16 +2998,16 @@
         <v>20000</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F3">
         <v>16</v>
@@ -2992,16 +3016,16 @@
         <v>4.3</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="I3">
         <v>13316512643</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="L3">
         <v>22.549199999999999</v>
@@ -3015,16 +3039,16 @@
         <v>20001</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="F4">
         <v>16</v>
@@ -3033,13 +3057,13 @@
         <v>4.5</v>
       </c>
       <c r="H4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="I4">
         <v>13823617006</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4">
         <v>22.54862</v>

--- a/data/eatwhat.xlsx
+++ b/data/eatwhat.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="196">
   <si>
     <t>id</t>
   </si>
@@ -160,15 +160,6 @@
     <t>0755-26653002</t>
   </si>
   <si>
-    <t>正新鸡排</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13713900315 </t>
-  </si>
-  <si>
-    <t>小吃</t>
-  </si>
-  <si>
     <t>兰州拉面</t>
   </si>
   <si>
@@ -217,12 +208,6 @@
     <t>面粉</t>
   </si>
   <si>
-    <t>担担面</t>
-  </si>
-  <si>
-    <t>0755-86726503</t>
-  </si>
-  <si>
     <t>原只椰子川贝炖土鸡汤</t>
   </si>
   <si>
@@ -450,7 +435,7 @@
   </si>
   <si>
     <r>
-      <t>10009</t>
+      <t>10010</t>
     </r>
     <r>
       <rPr>
@@ -467,7 +452,7 @@
   </si>
   <si>
     <r>
-      <t>10010</t>
+      <t>10011</t>
     </r>
     <r>
       <rPr>
@@ -484,7 +469,7 @@
   </si>
   <si>
     <r>
-      <t>10011</t>
+      <t>10012</t>
     </r>
     <r>
       <rPr>
@@ -501,7 +486,7 @@
   </si>
   <si>
     <r>
-      <t>10012</t>
+      <t>10013</t>
     </r>
     <r>
       <rPr>
@@ -518,7 +503,7 @@
   </si>
   <si>
     <r>
-      <t>10013</t>
+      <t>10014</t>
     </r>
     <r>
       <rPr>
@@ -535,7 +520,7 @@
   </si>
   <si>
     <r>
-      <t>10014</t>
+      <t>10018</t>
     </r>
     <r>
       <rPr>
@@ -552,7 +537,7 @@
   </si>
   <si>
     <r>
-      <t>10015</t>
+      <t>10019</t>
     </r>
     <r>
       <rPr>
@@ -569,7 +554,7 @@
   </si>
   <si>
     <r>
-      <t>10018</t>
+      <t>10020</t>
     </r>
     <r>
       <rPr>
@@ -586,7 +571,7 @@
   </si>
   <si>
     <r>
-      <t>10019</t>
+      <t>10021</t>
     </r>
     <r>
       <rPr>
@@ -603,7 +588,7 @@
   </si>
   <si>
     <r>
-      <t>10020</t>
+      <t>10022</t>
     </r>
     <r>
       <rPr>
@@ -620,7 +605,7 @@
   </si>
   <si>
     <r>
-      <t>10021</t>
+      <t>10023</t>
     </r>
     <r>
       <rPr>
@@ -637,7 +622,7 @@
   </si>
   <si>
     <r>
-      <t>10022</t>
+      <t>10024</t>
     </r>
     <r>
       <rPr>
@@ -654,7 +639,7 @@
   </si>
   <si>
     <r>
-      <t>10023</t>
+      <t>10025</t>
     </r>
     <r>
       <rPr>
@@ -671,7 +656,7 @@
   </si>
   <si>
     <r>
-      <t>10024</t>
+      <t>10026</t>
     </r>
     <r>
       <rPr>
@@ -688,7 +673,7 @@
   </si>
   <si>
     <r>
-      <t>10025</t>
+      <t>10027</t>
     </r>
     <r>
       <rPr>
@@ -705,7 +690,7 @@
   </si>
   <si>
     <r>
-      <t>10026</t>
+      <t>10028</t>
     </r>
     <r>
       <rPr>
@@ -721,40 +706,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>10027</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10028</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>芝士太芒</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -813,14 +764,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一个人也可以吃的火锅，推荐牛肉丸、金针菇、蟹柳、油条、炸腐竹。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃面养胃，罐罐面里有基围虾、猪肝、火腿。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>里面有肥牛、米线、泡菜、六种配菜。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -841,20 +784,57 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>炸鸡、啤酒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>没啥可说的，都一个味。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>配上酱油和辣椒酱直接拌牛肉饭。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>很大一碗肥牛。读丼jing，盖饭的意思</t>
+    <t>羊肉不膻，推荐尝一下凉粉。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤有点甜甜的，里面鸡肉很嫩很好吃 ，美容养颜。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陕西风味，肉夹馍很正宗。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>三文鱼很新鲜，晚上8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吃可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>打折</t>
     </r>
     <r>
       <rPr>
@@ -870,80 +850,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>肠胃不好的时候吃点很舒服。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊肉不膻，推荐尝一下凉粉。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>很清淡。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>汤有点甜甜的，里面鸡肉很嫩很好吃 ，美容养颜。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陕西风味，肉夹馍很正宗。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>三文鱼很新鲜，晚上8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>点后</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>吃可以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>打折</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蟹棒好吃 蟹棒好吃 蟹棒好吃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>酸辣味，汤也挺好喝的。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1044,10 +950,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>正新鸡排</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>吉野家</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1060,10 +962,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>圳径面馆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>吃个汤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1151,19 +1049,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">科兴科学园A栋G层01号铺 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">科兴科学园(筷子私房菜) </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>科兴科学园</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>科兴科学园B栋G层05室</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1189,6 +1079,30 @@
   </si>
   <si>
     <t>科兴科学园C栋G层17a号的商铺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个人也可以吃的火锅。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃面养胃，罐罐面里有基围虾、猪肝、火腿。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没啥可说的，都一个味。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>很大一碗肥牛盖饭。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肠胃不好的时候喝点小米粥。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蟹棒好吃</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1544,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1603,13 +1517,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="M1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="N1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1647,13 +1561,13 @@
         <v>20</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1670,7 +1584,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="F3">
         <v>35</v>
@@ -1679,7 +1593,7 @@
         <v>4.2</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>23</v>
@@ -1711,10 +1625,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F4">
         <v>18</v>
@@ -1723,13 +1637,13 @@
         <v>4</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="K4" t="s">
         <v>28</v>
@@ -1755,10 +1669,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="F5">
         <v>18</v>
@@ -1767,7 +1681,7 @@
         <v>4.3</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I5" s="6">
         <v>15712083177</v>
@@ -1799,10 +1713,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F6">
         <v>28</v>
@@ -1811,7 +1725,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>33</v>
@@ -1843,10 +1757,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F7">
         <v>18</v>
@@ -1855,13 +1769,13 @@
         <v>3.7</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="K7" t="s">
         <v>28</v>
@@ -1887,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F8">
         <v>16</v>
@@ -1899,13 +1813,13 @@
         <v>4.3</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>39</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="K8" t="s">
         <v>40</v>
@@ -1931,10 +1845,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F9">
         <v>16</v>
@@ -1943,13 +1857,13 @@
         <v>4</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="K9" t="s">
         <v>43</v>
@@ -1975,10 +1889,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F10">
         <v>18</v>
@@ -1987,13 +1901,13 @@
         <v>3.9</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="K10" t="s">
         <v>40</v>
@@ -2010,7 +1924,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
-        <v>10009</v>
+        <v>10010</v>
       </c>
       <c r="B11" t="s">
         <v>46</v>
@@ -2018,43 +1932,43 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>172</v>
+      <c r="D11" t="s">
+        <v>46</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>47</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="K11" t="s">
         <v>48</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>22.547599999999999</v>
+        <v>22.548400000000001</v>
       </c>
       <c r="N11">
-        <v>113.94473000000001</v>
+        <v>113.94391</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
-        <v>10010</v>
+        <v>10011</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
@@ -2062,131 +1976,131 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>49</v>
+      <c r="D12" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>200</v>
+      <c r="J12" t="s">
+        <v>51</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L12">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>22.548400000000001</v>
+        <v>22.548179999999999</v>
       </c>
       <c r="N12">
-        <v>113.94391</v>
+        <v>113.94462</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
-        <v>10011</v>
+        <v>10012</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="F13">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G13">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>53</v>
+        <v>102</v>
+      </c>
+      <c r="I13" s="5">
+        <v>18128866707</v>
       </c>
       <c r="J13" t="s">
         <v>54</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M13">
-        <v>22.548179999999999</v>
+        <v>22.548390000000001</v>
       </c>
       <c r="N13">
-        <v>113.94462</v>
+        <v>113.94398</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>174</v>
+      <c r="D14" t="s">
+        <v>56</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="F14">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G14">
         <v>4</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" s="5">
-        <v>18128866707</v>
-      </c>
-      <c r="J14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="J14" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>22.548390000000001</v>
+        <v>22.548870000000001</v>
       </c>
       <c r="N14">
-        <v>113.94398</v>
+        <v>113.94359</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
-        <v>10013</v>
+        <v>10014</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -2194,175 +2108,175 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15">
+        <v>25</v>
+      </c>
+      <c r="G15">
+        <v>4.2</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15">
-        <v>18</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" t="s">
         <v>60</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M15">
-        <v>22.548870000000001</v>
+        <v>22.548580000000001</v>
       </c>
       <c r="N15">
-        <v>113.94359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>113.94316999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="16.5">
       <c r="A16">
-        <v>10014</v>
+        <v>10018</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16">
+        <v>28</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F16">
-        <v>25</v>
-      </c>
-      <c r="G16">
-        <v>4.2</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="J16" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="K16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <v>22.549340000000001</v>
+      </c>
+      <c r="N16">
+        <v>113.94262000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18" customHeight="1">
+      <c r="A17">
+        <v>10019</v>
+      </c>
+      <c r="B17" t="s">
         <v>63</v>
-      </c>
-      <c r="K16" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16">
-        <v>15</v>
-      </c>
-      <c r="M16">
-        <v>22.548580000000001</v>
-      </c>
-      <c r="N16">
-        <v>113.94316999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17">
-        <v>10015</v>
-      </c>
-      <c r="B17" t="s">
-        <v>65</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="F17">
         <v>18</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>202</v>
+        <v>64</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="K17" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M17">
-        <v>22.548590000000001</v>
+        <v>22.54832</v>
       </c>
       <c r="N17">
-        <v>113.9444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="16.5">
+        <v>113.94286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18">
-        <v>10018</v>
+        <v>10020</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="F18">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>4</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>203</v>
+        <v>66</v>
+      </c>
+      <c r="J18" t="s">
+        <v>67</v>
       </c>
       <c r="K18" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M18">
-        <v>22.549340000000001</v>
+        <v>22.547460000000001</v>
       </c>
       <c r="N18">
-        <v>113.94262000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1">
+        <v>113.94418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19">
-        <v>10019</v>
+        <v>10021</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
@@ -2370,120 +2284,120 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>178</v>
+      <c r="D19" t="s">
+        <v>69</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G19">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>204</v>
+        <v>70</v>
+      </c>
+      <c r="J19" t="s">
+        <v>71</v>
       </c>
       <c r="K19" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M19">
-        <v>22.54832</v>
+        <v>22.547350000000002</v>
       </c>
       <c r="N19">
-        <v>113.94286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>113.94235999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="18.95" customHeight="1">
       <c r="A20">
-        <v>10020</v>
+        <v>10022</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F20">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="G20">
         <v>4</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="K20" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M20">
-        <v>22.547460000000001</v>
+        <v>22.548410000000001</v>
       </c>
       <c r="N20">
-        <v>113.94418</v>
+        <v>113.9442</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21">
-        <v>10021</v>
+        <v>10023</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
-        <v>74</v>
+      <c r="D21" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F21">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G21">
-        <v>4.0999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J21" t="s">
         <v>76</v>
       </c>
-      <c r="K21" t="s">
-        <v>55</v>
+      <c r="J21" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M21">
         <v>22.547350000000002</v>
@@ -2492,53 +2406,53 @@
         <v>113.94235999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18.95" customHeight="1">
+    <row r="22" spans="1:14">
       <c r="A22">
-        <v>10022</v>
+        <v>10024</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="F22">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G22">
         <v>4</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J22" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="J22" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="K22" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M22">
-        <v>22.548410000000001</v>
+        <v>22.5474</v>
       </c>
       <c r="N22">
-        <v>113.9442</v>
+        <v>113.94417</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23">
-        <v>10023</v>
+        <v>10025</v>
       </c>
       <c r="B23" t="s">
         <v>80</v>
@@ -2546,131 +2460,131 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>180</v>
+      <c r="D23" t="s">
+        <v>81</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F23">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G23">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>82</v>
+        <v>187</v>
+      </c>
+      <c r="K23" t="s">
+        <v>83</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>22.547350000000002</v>
+        <v>22.548870000000001</v>
       </c>
       <c r="N23">
-        <v>113.94235999999999</v>
+        <v>113.94359</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24">
-        <v>10024</v>
+        <v>10026</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F24">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>207</v>
+        <v>85</v>
+      </c>
+      <c r="J24" t="s">
+        <v>86</v>
       </c>
       <c r="K24" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="L24">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M24">
-        <v>22.5474</v>
+        <v>22.548780000000001</v>
       </c>
       <c r="N24">
-        <v>113.94417</v>
+        <v>113.9422</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25">
-        <v>10025</v>
+        <v>10027</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" t="s">
-        <v>86</v>
+      <c r="D25" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="F25">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G25">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>87</v>
+        <v>114</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="K25" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="L25">
         <v>15</v>
       </c>
       <c r="M25">
-        <v>22.548870000000001</v>
+        <v>22.547619999999998</v>
       </c>
       <c r="N25">
-        <v>113.94359</v>
+        <v>113.94377</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26">
-        <v>10026</v>
+        <v>10028</v>
       </c>
       <c r="B26" t="s">
         <v>89</v>
@@ -2679,19 +2593,19 @@
         <v>1</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="F26">
         <v>18</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>90</v>
@@ -2700,185 +2614,97 @@
         <v>91</v>
       </c>
       <c r="K26" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="L26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M26">
-        <v>22.548780000000001</v>
+        <v>22.548929999999999</v>
       </c>
       <c r="N26">
-        <v>113.9422</v>
+        <v>113.94351</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27">
-        <v>10027</v>
-      </c>
-      <c r="B27" t="s">
-        <v>92</v>
+        <v>10030</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F27">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="G27">
         <v>4</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>208</v>
+        <v>175</v>
+      </c>
+      <c r="J27" t="s">
+        <v>176</v>
       </c>
       <c r="K27" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>22.547619999999998</v>
+        <v>22.547640000000001</v>
       </c>
       <c r="N27">
-        <v>113.94377</v>
+        <v>113.94432</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28">
-        <v>10028</v>
-      </c>
-      <c r="B28" t="s">
-        <v>94</v>
+        <v>10031</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F28">
         <v>18</v>
       </c>
       <c r="G28">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="J28" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="K28" t="s">
         <v>40</v>
       </c>
       <c r="L28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M28">
-        <v>22.548929999999999</v>
+        <v>22.547640000000001</v>
       </c>
       <c r="N28">
-        <v>113.94351</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29">
-        <v>10030</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="F29">
-        <v>19</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J29" t="s">
-        <v>193</v>
-      </c>
-      <c r="K29" t="s">
-        <v>40</v>
-      </c>
-      <c r="L29">
-        <v>6</v>
-      </c>
-      <c r="M29">
-        <v>22.547640000000001</v>
-      </c>
-      <c r="N29">
-        <v>113.94432</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30">
-        <v>10031</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F30">
-        <v>18</v>
-      </c>
-      <c r="G30">
-        <v>4.5</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="J30" t="s">
-        <v>193</v>
-      </c>
-      <c r="K30" t="s">
-        <v>40</v>
-      </c>
-      <c r="L30">
-        <v>9</v>
-      </c>
-      <c r="M30">
-        <v>22.547640000000001</v>
-      </c>
-      <c r="N30">
         <v>113.94432</v>
       </c>
     </row>
@@ -2946,10 +2772,10 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="M1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2987,10 +2813,10 @@
         <v>20</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2998,16 +2824,16 @@
         <v>20000</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F3">
         <v>16</v>
@@ -3016,7 +2842,7 @@
         <v>4.3</v>
       </c>
       <c r="H3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I3">
         <v>13316512643</v>
@@ -3025,7 +2851,7 @@
         <v>30</v>
       </c>
       <c r="K3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L3">
         <v>22.549199999999999</v>
@@ -3039,16 +2865,16 @@
         <v>20001</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F4">
         <v>16</v>
@@ -3057,7 +2883,7 @@
         <v>4.5</v>
       </c>
       <c r="H4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I4">
         <v>13823617006</v>

--- a/data/eatwhat.xlsx
+++ b/data/eatwhat.xlsx
@@ -15,12 +15,12 @@
     <sheet name="food" sheetId="1" r:id="rId1"/>
     <sheet name="drink" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="214">
   <si>
     <t>id</t>
   </si>
@@ -879,23 +879,6 @@
   </si>
   <si>
     <t>评分人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>corePeople</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1103,6 +1086,222 @@
   </si>
   <si>
     <t>蟹棒好吃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ood_id</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ood_desc</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ood_type</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ic_list</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hop_name</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hop_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>address</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ood_score</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>el</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ood_tag</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>food_score_people</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tring</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1110,7 +1309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1139,6 +1338,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF454545"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1160,7 +1365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1182,6 +1387,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1458,31 +1667,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="6.5" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="49.5" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
     <col min="6" max="6" width="6.625" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
-    <col min="9" max="9" width="16" style="5" customWidth="1"/>
-    <col min="10" max="10" width="30.75" customWidth="1"/>
-    <col min="11" max="11" width="15.625" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
-    <col min="13" max="13" width="19.125" customWidth="1"/>
-    <col min="14" max="14" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+    <col min="10" max="10" width="17.375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="6.375" customWidth="1"/>
+    <col min="13" max="13" width="9.75" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1490,28 +1700,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -1520,1192 +1730,1341 @@
         <v>142</v>
       </c>
       <c r="M1" t="s">
+        <v>144</v>
+      </c>
+      <c r="N1" t="s">
         <v>145</v>
       </c>
-      <c r="N1" t="s">
-        <v>146</v>
-      </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="2" spans="1:15">
+      <c r="A2" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+      <c r="C2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
+      <c r="G2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>149</v>
-      </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3">
+    <row r="3" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15">
+      <c r="A4">
         <v>10001</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3">
-        <v>35</v>
-      </c>
-      <c r="G3">
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4">
         <v>4.2</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>7</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>22.54805</v>
       </c>
-      <c r="N3">
+      <c r="N4">
         <v>113.94266</v>
       </c>
+      <c r="O4" s="10" t="str">
+        <f>CONCATENATE("insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (",A4,",",B4,",",C4,",",D4,",",E4,",",F4,",",G4,",",H4,",",I4,",",J4,",",K4,",",L4,",",M4,",",N4,");")</f>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10001,麻辣烫,一个人也可以吃的火锅。,1,10001_01,35,张亮麻辣烫,科兴科学园原味街面包新语旁,4.2,0755-32823605,麻辣,7,22.54805,113.94266);</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4">
+    <row r="5" spans="1:15" ht="15">
+      <c r="A5">
         <v>10002</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4">
-        <v>15</v>
-      </c>
-      <c r="M4">
-        <v>22.548870000000001</v>
-      </c>
-      <c r="N4">
-        <v>113.94359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5">
-        <v>10003</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="F5">
         <v>18</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>15</v>
+      </c>
+      <c r="M5">
+        <v>22.548870000000001</v>
+      </c>
+      <c r="N5">
+        <v>113.94359</v>
+      </c>
+      <c r="O5" s="10" t="str">
+        <f t="shared" ref="O5:O29" si="0">CONCATENATE("insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (",A5,",",B5,",",C5,",",D5,",",E5,",",F5,",",G5,",",H5,",",I5,",",J5,",",K5,",",L5,",",M5,",",N5,");")</f>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10002,哈帝斯培根牛肉堡,很扎实的牛肉汉堡，薯条也很厚实。,1,10002_01,18,哈帝斯汉堡,科兴科学园原味街BG17-D ,4,0755-86950460,西餐,15,22.54887,113.94359);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15">
+      <c r="A6">
+        <v>10003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6">
         <v>4.3</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="J6" s="6">
         <v>15712083177</v>
       </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="K6" t="s">
         <v>31</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>14</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>22.548639999999999</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>113.94413</v>
       </c>
+      <c r="O6" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10003,三鲜罐罐面,吃面养胃，罐罐面里有基围虾、猪肝、火腿。,1,10003_01,18,连鼎香汤馆,科兴科学园原味街,4.3,15712083177,面,14,22.54864,113.94413);</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1">
-      <c r="A6">
+    <row r="7" spans="1:15" ht="18" customHeight="1">
+      <c r="A7">
         <v>10004</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>22.549150000000001</v>
+      </c>
+      <c r="N7">
+        <v>113.94302</v>
+      </c>
+      <c r="O7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10004,肥牛过桥米线,里面有肥牛、米线、泡菜、六种配菜。,1,10004_01,28,十秒到云南过桥米线,科兴科学园原味街A栋G层38 ,4.6,13670048456,创意菜,6,22.54915,113.94302);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15">
+      <c r="A8">
+        <v>10005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6">
+      <c r="H8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8">
+        <v>3.7</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
         <v>28</v>
       </c>
-      <c r="G6">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6">
-        <v>6</v>
-      </c>
-      <c r="M6">
-        <v>22.549150000000001</v>
-      </c>
-      <c r="N6">
-        <v>113.94302</v>
+      <c r="L8">
+        <v>15</v>
+      </c>
+      <c r="M8">
+        <v>22.548179999999999</v>
+      </c>
+      <c r="N8">
+        <v>113.94355</v>
+      </c>
+      <c r="O8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10005,奥尔良汉堡套餐,汉堡、薯条、可乐。,1,10005_01,18,肯德基,科兴科学园G层CG17b号 ,3.7,0755-26604883 ,西餐,15,22.54818,113.94355);</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7">
-        <v>10005</v>
-      </c>
-      <c r="B7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7">
+    <row r="9" spans="1:15" ht="16.5">
+      <c r="A9">
+        <v>10006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7">
-        <v>18</v>
-      </c>
-      <c r="G7">
-        <v>3.7</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7">
-        <v>15</v>
-      </c>
-      <c r="M7">
-        <v>22.548179999999999</v>
-      </c>
-      <c r="N7">
-        <v>113.94355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="16.5">
-      <c r="A8">
-        <v>10006</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8">
-        <v>16</v>
-      </c>
-      <c r="G8">
-        <v>4.3</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="K8" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8">
-        <v>16</v>
-      </c>
-      <c r="M8">
-        <v>22.547409999999999</v>
-      </c>
-      <c r="N8">
-        <v>113.94414999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
-        <v>10007</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="F9">
         <v>16</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9">
+        <v>4.3</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9">
+        <v>16</v>
+      </c>
+      <c r="M9">
+        <v>22.547409999999999</v>
+      </c>
+      <c r="N9">
+        <v>113.94414999999999</v>
+      </c>
+      <c r="O9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10006,鱼香肉丝饭,口味适中，上菜块，价格便宜,1,10006_01,16,小米姑娘,科兴科学园C栋G层23/24/25(腾讯食堂门口),4.3,0755-86962055,快餐,16,22.54741,113.94415);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15">
+      <c r="A10">
+        <v>10007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10">
         <v>4</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>22.548410000000001</v>
+      </c>
+      <c r="N10">
+        <v>113.94438</v>
+      </c>
+      <c r="O10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10007,新明月水饺,推荐香菜水饺+凉菜,1,10007_01,16,新明月水饺,科兴科学园C栋G-03号 ,4,0755-86525969 13902465558,东北菜,9,22.54841,113.94438);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15">
+      <c r="A11">
+        <v>10008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="K9" t="s">
+      <c r="I11">
+        <v>3.9</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11">
+        <v>15</v>
+      </c>
+      <c r="M11">
+        <v>22.548580000000001</v>
+      </c>
+      <c r="N11">
+        <v>113.94449</v>
+      </c>
+      <c r="O11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10008,黄焖鸡米饭,鸡肉滑嫩、送凉茶,1,10008_01,18,味鲜生黄焖鸡米饭,科兴科学园东门原味街BG04,3.9,0755-26653002,快餐,15,22.54858,113.94449);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15">
+      <c r="A12">
+        <v>10010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>22.548400000000001</v>
+      </c>
+      <c r="N12">
+        <v>113.94391</v>
+      </c>
+      <c r="O12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10010,兰州拉面,没啥可说的，都一个味。,1,10010_01,15,兰州拉面,科兴科学园(筷子私房菜) ,4,13266634998,面食,9,22.5484,113.94391);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15">
+      <c r="A13">
+        <v>10011</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13">
+        <v>13</v>
+      </c>
+      <c r="M13">
+        <v>22.548179999999999</v>
+      </c>
+      <c r="N13">
+        <v>113.94462</v>
+      </c>
+      <c r="O13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10011,吉野家牛肉饭,配上酱油和辣椒酱直接拌牛肉饭。,1,10011_01,18,吉野家,科兴科学园原味街G层肯德基左侧 ,4.1,0755-86564171/13480975954,日本料理,13,22.54818,113.94462);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15">
+      <c r="A14">
+        <v>10012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14">
+        <v>21</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14" s="5">
+        <v>18128866707</v>
+      </c>
+      <c r="K14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14">
+        <v>8</v>
+      </c>
+      <c r="M14">
+        <v>22.548390000000001</v>
+      </c>
+      <c r="N14">
+        <v>113.94398</v>
+      </c>
+      <c r="O14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10012,泡菜牛丼,很大一碗肥牛盖饭。,1,10012_01,21,众品佳,科兴科学园,4,18128866707,快餐,8,22.54839,113.94398);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15">
+      <c r="A15">
+        <v>10013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" t="s">
         <v>43</v>
       </c>
-      <c r="L9">
-        <v>9</v>
-      </c>
-      <c r="M9">
-        <v>22.548410000000001</v>
-      </c>
-      <c r="N9">
-        <v>113.94438</v>
+      <c r="L15">
+        <v>17</v>
+      </c>
+      <c r="M15">
+        <v>22.548870000000001</v>
+      </c>
+      <c r="N15">
+        <v>113.94359</v>
+      </c>
+      <c r="O15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10013,小米粥+包子,肠胃不好的时候喝点小米粥。,1,10013_01,18,阿泰包子,科兴科学园,4,18301210223,东北菜,17,22.54887,113.94359);</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10">
-        <v>10008</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10">
+    <row r="16" spans="1:15" ht="15">
+      <c r="A16">
+        <v>10014</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16">
         <v>1</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10">
+      <c r="E16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16">
+        <v>4.2</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="M16">
+        <v>22.548580000000001</v>
+      </c>
+      <c r="N16">
+        <v>113.94316999999999</v>
+      </c>
+      <c r="O16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10014,招牌羊肉粉,羊肉不膻，推荐尝一下凉粉。,1,10014_01,25,黔派羊肉粉,科兴科学园原味街G层33铺(快乐园旁),4.2,13510262162,面粉,15,22.54858,113.94317);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="16.5">
+      <c r="A17">
+        <v>10018</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17">
+        <v>28</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>22.549340000000001</v>
+      </c>
+      <c r="N17">
+        <v>113.94262000000001</v>
+      </c>
+      <c r="O17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10018,原只椰子川贝炖土鸡汤,汤有点甜甜的，里面鸡肉很嫩很好吃 ，美容养颜。,1,10018_01,28,吃个汤,科兴科学园A栋G层10号铺,4,0755-86540135  13728866844,快餐,6,22.54934,113.94262);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="18" customHeight="1">
+      <c r="A18">
+        <v>10019</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18">
         <v>18</v>
       </c>
-      <c r="G10">
-        <v>3.9</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="K10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10">
+      <c r="G18" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="I18">
+        <v>3.5</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18">
         <v>15</v>
       </c>
-      <c r="M10">
-        <v>22.548580000000001</v>
-      </c>
-      <c r="N10">
-        <v>113.94449</v>
+      <c r="M18">
+        <v>22.54832</v>
+      </c>
+      <c r="N18">
+        <v>113.94286</v>
+      </c>
+      <c r="O18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10019,小米粥+肉夹馍,陕西风味，肉夹馍很正宗。,1,10019_01,18,木马勺,科兴科学园北门A栋G层臻食荟美食广场大店-01 
+,3.5,17878228319 ,东北菜,15,22.54832,113.94286);</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11">
-        <v>10010</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11">
+    <row r="19" spans="1:15" ht="15">
+      <c r="A19">
+        <v>10020</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F11">
-        <v>15</v>
-      </c>
-      <c r="G11">
+      <c r="E19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19">
+        <v>32</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19">
         <v>4</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="K11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11">
-        <v>9</v>
-      </c>
-      <c r="M11">
-        <v>22.548400000000001</v>
-      </c>
-      <c r="N11">
-        <v>113.94391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12">
-        <v>10011</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12">
-        <v>18</v>
-      </c>
-      <c r="G12">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12">
-        <v>13</v>
-      </c>
-      <c r="M12">
-        <v>22.548179999999999</v>
-      </c>
-      <c r="N12">
-        <v>113.94462</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13">
-        <v>10012</v>
-      </c>
-      <c r="B13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F13">
-        <v>21</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I13" s="5">
-        <v>18128866707</v>
-      </c>
-      <c r="J13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13">
-        <v>8</v>
-      </c>
-      <c r="M13">
-        <v>22.548390000000001</v>
-      </c>
-      <c r="N13">
-        <v>113.94398</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14">
-        <v>10013</v>
-      </c>
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F14">
-        <v>18</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="K14" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14">
-        <v>17</v>
-      </c>
-      <c r="M14">
-        <v>22.548870000000001</v>
-      </c>
-      <c r="N14">
-        <v>113.94359</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
-        <v>10014</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15">
-        <v>25</v>
-      </c>
-      <c r="G15">
-        <v>4.2</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15">
-        <v>15</v>
-      </c>
-      <c r="M15">
-        <v>22.548580000000001</v>
-      </c>
-      <c r="N15">
-        <v>113.94316999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="16.5">
-      <c r="A16">
-        <v>10018</v>
-      </c>
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16">
-        <v>28</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="K16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16">
-        <v>6</v>
-      </c>
-      <c r="M16">
-        <v>22.549340000000001</v>
-      </c>
-      <c r="N16">
-        <v>113.94262000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1">
-      <c r="A17">
-        <v>10019</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17">
-        <v>18</v>
-      </c>
-      <c r="G17">
-        <v>3.5</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="K17" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17">
-        <v>15</v>
-      </c>
-      <c r="M17">
-        <v>22.54832</v>
-      </c>
-      <c r="N17">
-        <v>113.94286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18">
-        <v>10020</v>
-      </c>
-      <c r="B18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F18">
-        <v>32</v>
-      </c>
-      <c r="G18">
-        <v>4</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I18" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="J18" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18">
-        <v>11</v>
-      </c>
-      <c r="M18">
-        <v>22.547460000000001</v>
-      </c>
-      <c r="N18">
-        <v>113.94418</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19">
-        <v>10021</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F19">
-        <v>34</v>
-      </c>
-      <c r="G19">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" t="s">
-        <v>71</v>
       </c>
       <c r="K19" t="s">
         <v>52</v>
       </c>
       <c r="L19">
+        <v>11</v>
+      </c>
+      <c r="M19">
+        <v>22.547460000000001</v>
+      </c>
+      <c r="N19">
+        <v>113.94418</v>
+      </c>
+      <c r="O19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10020,火炙蟹棒寿司,蟹棒好吃,1,10020_01,32,樽上日本料理,科兴路科学园B1楼原味街C栋G层18A号铺 ,4,0755-23223228,日本料理,11,22.54746,113.94418);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15">
+      <c r="A20">
+        <v>10021</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+      <c r="I20">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20">
         <v>14</v>
       </c>
-      <c r="M19">
+      <c r="M20">
         <v>22.547350000000002</v>
       </c>
-      <c r="N19">
+      <c r="N20">
         <v>113.94235999999999</v>
       </c>
+      <c r="O20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10021,三文鱼寿司,三文鱼很新鲜，晚上8点后吃可以打折。,1,10021_01,34,海鲑工坊,科兴科学园原味街A栋G层(华润万家超市旁) ,4.1,0755-89239887,日本料理,14,22.54735,113.94236);</v>
+      </c>
     </row>
-    <row r="20" spans="1:14" ht="18.95" customHeight="1">
-      <c r="A20">
+    <row r="21" spans="1:15" ht="18.95" customHeight="1">
+      <c r="A21">
         <v>10022</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>72</v>
       </c>
-      <c r="C20">
+      <c r="C21" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20">
+      <c r="E21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21">
         <v>18</v>
       </c>
-      <c r="G20">
+      <c r="G21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21">
         <v>4</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I20" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="K21" t="s">
         <v>61</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>15</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <v>22.548410000000001</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <v>113.9442</v>
       </c>
+      <c r="O21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10022,原味螺蛳粉,酸辣味，汤也挺好喝的。,1,10022_01,18,辣椒王德沿桂林米粉,科兴科学园CG07,4,13528438856,面粉,15,22.54841,113.9442);</v>
+      </c>
     </row>
-    <row r="21" spans="1:14">
-      <c r="A21">
+    <row r="22" spans="1:15" ht="15">
+      <c r="A22">
         <v>10023</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>75</v>
       </c>
-      <c r="C21">
+      <c r="C22" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22">
         <v>1</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21">
-        <v>22</v>
-      </c>
-      <c r="G21">
-        <v>3.5</v>
-      </c>
-      <c r="H21" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L21">
-        <v>23</v>
-      </c>
-      <c r="M21">
-        <v>22.547350000000002</v>
-      </c>
-      <c r="N21">
-        <v>113.94235999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22">
-        <v>10024</v>
-      </c>
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="F22">
         <v>22</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I22">
+        <v>3.5</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L22">
+        <v>23</v>
+      </c>
+      <c r="M22">
+        <v>22.547350000000002</v>
+      </c>
+      <c r="N22">
+        <v>113.94235999999999</v>
+      </c>
+      <c r="O22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10023,海南鸡,鸡肉滑嫩而且还有鸡油冻、老板自制马来泡菜酸辣爽口。,1,10023_01,22,原林小品,科兴科学园原味街一楼,3.5,13670044172,东南亚口味,23,22.54735,113.94236);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15">
+      <c r="A23">
+        <v>10024</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I23">
         <v>4</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23">
+        <v>12</v>
+      </c>
+      <c r="M23">
+        <v>22.5474</v>
+      </c>
+      <c r="N23">
+        <v>113.94417</v>
+      </c>
+      <c r="O23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10024,金枪鱼三明治,减肥餐不错，蔬菜和三文鱼比较新鲜。,1,10024_01,22,赛百味,科兴科学园CG25A，C3出口旁边 ,4,13510240229,西餐,12,22.5474,113.94417);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15">
+      <c r="A24">
+        <v>10025</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I24">
+        <v>3.7</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24">
+        <v>15</v>
+      </c>
+      <c r="M24">
+        <v>22.548870000000001</v>
+      </c>
+      <c r="N24">
+        <v>113.94359</v>
+      </c>
+      <c r="O24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10025,金枪鱼紫菜包饭,喜欢紫菜、金枪鱼、饭团混合的味道,1,10025_01,30,金三顺紫菜包饭,科兴科学园BG-17C大食汇对面,3.7,13332980410,韩式,15,22.54887,113.94359);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15">
+      <c r="A25">
+        <v>10026</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25">
+        <v>18</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25">
+        <v>8</v>
+      </c>
+      <c r="M25">
+        <v>22.548780000000001</v>
+      </c>
+      <c r="N25">
+        <v>113.9422</v>
+      </c>
+      <c r="O25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10026,鲜虾云吞,虾仁新鲜饱满。,1,10026_01,18,根味云吞,科兴科学园G层臻食荟内 ,4,13077881083,面食,8,22.54878,113.9422);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15">
+      <c r="A26">
+        <v>10027</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26">
+        <v>39</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="K22" t="s">
+      <c r="I26">
+        <v>4</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" t="s">
         <v>28</v>
       </c>
-      <c r="L22">
-        <v>12</v>
-      </c>
-      <c r="M22">
-        <v>22.5474</v>
-      </c>
-      <c r="N22">
-        <v>113.94417</v>
+      <c r="L26">
+        <v>15</v>
+      </c>
+      <c r="M26">
+        <v>22.547619999999998</v>
+      </c>
+      <c r="N26">
+        <v>113.94377</v>
+      </c>
+      <c r="O26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10027,6寸夏威夷披萨套餐,味道不错，份量适合两人吃。,1,10027_01,39,乐凯撒披萨,科兴科学园C栋G层17a号的商铺,4,0755-26609719,西餐,15,22.54762,113.94377);</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
-      <c r="A23">
-        <v>10025</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23">
+    <row r="27" spans="1:15" ht="15">
+      <c r="A27">
+        <v>10028</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27">
         <v>1</v>
       </c>
-      <c r="D23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F23">
-        <v>30</v>
-      </c>
-      <c r="G23">
-        <v>3.7</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="K23" t="s">
-        <v>83</v>
-      </c>
-      <c r="L23">
-        <v>15</v>
-      </c>
-      <c r="M23">
-        <v>22.548870000000001</v>
-      </c>
-      <c r="N23">
-        <v>113.94359</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24">
-        <v>10026</v>
-      </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24">
+      <c r="E27" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27">
         <v>18</v>
       </c>
-      <c r="G24">
-        <v>4</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K24" t="s">
-        <v>48</v>
-      </c>
-      <c r="L24">
-        <v>8</v>
-      </c>
-      <c r="M24">
-        <v>22.548780000000001</v>
-      </c>
-      <c r="N24">
-        <v>113.9422</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25">
-        <v>10027</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25">
-        <v>39</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="K25" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25">
-        <v>15</v>
-      </c>
-      <c r="M25">
-        <v>22.547619999999998</v>
-      </c>
-      <c r="N25">
-        <v>113.94377</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26">
-        <v>10028</v>
-      </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26">
-        <v>18</v>
-      </c>
-      <c r="G26">
+      <c r="H27" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27">
         <v>3.8</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" s="5" t="s">
+      <c r="J27" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="J26" t="s">
-        <v>91</v>
-      </c>
-      <c r="K26" t="s">
-        <v>40</v>
-      </c>
-      <c r="L26">
-        <v>10</v>
-      </c>
-      <c r="M26">
-        <v>22.548929999999999</v>
-      </c>
-      <c r="N26">
-        <v>113.94351</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27">
-        <v>10030</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F27">
-        <v>19</v>
-      </c>
-      <c r="G27">
-        <v>4</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="J27" t="s">
-        <v>176</v>
       </c>
       <c r="K27" t="s">
         <v>40</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M27">
-        <v>22.547640000000001</v>
+        <v>22.548929999999999</v>
       </c>
       <c r="N27">
-        <v>113.94432</v>
+        <v>113.94351</v>
+      </c>
+      <c r="O27" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10028,招牌卤水猪耳饭,猪耳很下饭。,1,10028_01,18,花卷家食馆,科兴科学园B栋J层17A区,3.8,15914130082 ,快餐,10,22.54893,113.94351);</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:15" ht="15">
       <c r="A28">
-        <v>10031</v>
+        <v>10030</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C28">
+        <v>170</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28">
         <v>1</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>169</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F28">
-        <v>18</v>
-      </c>
-      <c r="G28">
-        <v>4.5</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J28" t="s">
-        <v>176</v>
+        <v>19</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H28" t="s">
+        <v>175</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
       </c>
       <c r="K28" t="s">
         <v>40</v>
       </c>
       <c r="L28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M28">
         <v>22.547640000000001</v>
       </c>
       <c r="N28">
         <v>113.94432</v>
+      </c>
+      <c r="O28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10030,猪扒炒出前一 丁,口感非常赞，面里混合紫菜和猪排的味道,1,10030_01,19,稻香,科兴科学园C栋3单元1层,4,,快餐,6,22.54764,113.94432);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15">
+      <c r="A29">
+        <v>10031</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F29">
+        <v>18</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H29" t="s">
+        <v>175</v>
+      </c>
+      <c r="I29">
+        <v>4.5</v>
+      </c>
+      <c r="K29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29">
+        <v>9</v>
+      </c>
+      <c r="M29">
+        <v>22.547640000000001</v>
+      </c>
+      <c r="N29">
+        <v>113.94432</v>
+      </c>
+      <c r="O29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10031,荷叶排骨饭,好吃，我朋友连续点了一周排骨饭,1,10031_01,18,稻香,科兴科学园C栋3单元1层,4.5,,快餐,9,22.54764,113.94432);</v>
       </c>
     </row>
   </sheetData>
@@ -2772,10 +3131,10 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" t="s">
         <v>145</v>
-      </c>
-      <c r="M1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2813,10 +3172,10 @@
         <v>20</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2871,7 +3230,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
         <v>120</v>

--- a/data/eatwhat.xlsx
+++ b/data/eatwhat.xlsx
@@ -1202,6 +1202,23 @@
   </si>
   <si>
     <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>el</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>f</t>
     </r>
     <r>
@@ -1213,49 +1230,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ood_score</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>el</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>ood_tag</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>food_score_people</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1302,6 +1281,14 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_score_people</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1669,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AS26" sqref="AS26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1685,9 +1672,9 @@
     <col min="8" max="8" width="13.25" customWidth="1"/>
     <col min="9" max="9" width="10.125" customWidth="1"/>
     <col min="10" max="10" width="17.375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="6.375" customWidth="1"/>
-    <col min="13" max="13" width="9.75" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="11.375" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
     <col min="15" max="15" width="26.625" customWidth="1"/>
   </cols>
@@ -1762,16 +1749,16 @@
         <v>200</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>147</v>
@@ -1782,46 +1769,46 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="G3" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="J3" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="L3" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>213</v>
-      </c>
       <c r="N3" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15">
@@ -1868,8 +1855,8 @@
         <v>113.94266</v>
       </c>
       <c r="O4" s="10" t="str">
-        <f>CONCATENATE("insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (",A4,",",B4,",",C4,",",D4,",",E4,",",F4,",",G4,",",H4,",",I4,",",J4,",",K4,",",L4,",",M4,",",N4,");")</f>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10001,麻辣烫,一个人也可以吃的火锅。,1,10001_01,35,张亮麻辣烫,科兴科学园原味街面包新语旁,4.2,0755-32823605,麻辣,7,22.54805,113.94266);</v>
+        <f>CONCATENATE("insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘",A4,"’,‘",B4,"’,‘",C4,"’,‘",D4,"’,‘",E4,"’,‘",F4,"’,‘",G4,"’,‘",H4,"’,‘",I4,"’,‘",J4,"’,‘",K4,"’,‘",L4,"’,‘",M4,"’,‘",N4,"’);")</f>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10001’,‘麻辣烫’,‘一个人也可以吃的火锅。’,‘1’,‘10001_01’,‘35’,‘张亮麻辣烫’,‘科兴科学园原味街面包新语旁’,‘4.2’,‘0755-32823605’,‘麻辣’,‘7’,‘22.54805’,‘113.94266’);</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15">
@@ -1916,8 +1903,8 @@
         <v>113.94359</v>
       </c>
       <c r="O5" s="10" t="str">
-        <f t="shared" ref="O5:O29" si="0">CONCATENATE("insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (",A5,",",B5,",",C5,",",D5,",",E5,",",F5,",",G5,",",H5,",",I5,",",J5,",",K5,",",L5,",",M5,",",N5,");")</f>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10002,哈帝斯培根牛肉堡,很扎实的牛肉汉堡，薯条也很厚实。,1,10002_01,18,哈帝斯汉堡,科兴科学园原味街BG17-D ,4,0755-86950460,西餐,15,22.54887,113.94359);</v>
+        <f t="shared" ref="O5:O29" si="0">CONCATENATE("insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘",A5,"’,‘",B5,"’,‘",C5,"’,‘",D5,"’,‘",E5,"’,‘",F5,"’,‘",G5,"’,‘",H5,"’,‘",I5,"’,‘",J5,"’,‘",K5,"’,‘",L5,"’,‘",M5,"’,‘",N5,"’);")</f>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10002’,‘哈帝斯培根牛肉堡’,‘很扎实的牛肉汉堡，薯条也很厚实。’,‘1’,‘10002_01’,‘18’,‘哈帝斯汉堡’,‘科兴科学园原味街BG17-D ’,‘4’,‘0755-86950460’,‘西餐’,‘15’,‘22.54887’,‘113.94359’);</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15">
@@ -1965,7 +1952,7 @@
       </c>
       <c r="O6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10003,三鲜罐罐面,吃面养胃，罐罐面里有基围虾、猪肝、火腿。,1,10003_01,18,连鼎香汤馆,科兴科学园原味街,4.3,15712083177,面,14,22.54864,113.94413);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10003’,‘三鲜罐罐面’,‘吃面养胃，罐罐面里有基围虾、猪肝、火腿。’,‘1’,‘10003_01’,‘18’,‘连鼎香汤馆’,‘科兴科学园原味街’,‘4.3’,‘15712083177’,‘面’,‘14’,‘22.54864’,‘113.94413’);</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1">
@@ -2013,7 +2000,7 @@
       </c>
       <c r="O7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10004,肥牛过桥米线,里面有肥牛、米线、泡菜、六种配菜。,1,10004_01,28,十秒到云南过桥米线,科兴科学园原味街A栋G层38 ,4.6,13670048456,创意菜,6,22.54915,113.94302);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10004’,‘肥牛过桥米线’,‘里面有肥牛、米线、泡菜、六种配菜。’,‘1’,‘10004_01’,‘28’,‘十秒到云南过桥米线’,‘科兴科学园原味街A栋G层38 ’,‘4.6’,‘13670048456’,‘创意菜’,‘6’,‘22.54915’,‘113.94302’);</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15">
@@ -2061,7 +2048,7 @@
       </c>
       <c r="O8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10005,奥尔良汉堡套餐,汉堡、薯条、可乐。,1,10005_01,18,肯德基,科兴科学园G层CG17b号 ,3.7,0755-26604883 ,西餐,15,22.54818,113.94355);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10005’,‘奥尔良汉堡套餐’,‘汉堡、薯条、可乐。’,‘1’,‘10005_01’,‘18’,‘肯德基’,‘科兴科学园G层CG17b号 ’,‘3.7’,‘0755-26604883 ’,‘西餐’,‘15’,‘22.54818’,‘113.94355’);</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5">
@@ -2109,7 +2096,7 @@
       </c>
       <c r="O9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10006,鱼香肉丝饭,口味适中，上菜块，价格便宜,1,10006_01,16,小米姑娘,科兴科学园C栋G层23/24/25(腾讯食堂门口),4.3,0755-86962055,快餐,16,22.54741,113.94415);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10006’,‘鱼香肉丝饭’,‘口味适中，上菜块，价格便宜’,‘1’,‘10006_01’,‘16’,‘小米姑娘’,‘科兴科学园C栋G层23/24/25(腾讯食堂门口)’,‘4.3’,‘0755-86962055’,‘快餐’,‘16’,‘22.54741’,‘113.94415’);</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15">
@@ -2157,7 +2144,7 @@
       </c>
       <c r="O10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10007,新明月水饺,推荐香菜水饺+凉菜,1,10007_01,16,新明月水饺,科兴科学园C栋G-03号 ,4,0755-86525969 13902465558,东北菜,9,22.54841,113.94438);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10007’,‘新明月水饺’,‘推荐香菜水饺+凉菜’,‘1’,‘10007_01’,‘16’,‘新明月水饺’,‘科兴科学园C栋G-03号 ’,‘4’,‘0755-86525969 13902465558’,‘东北菜’,‘9’,‘22.54841’,‘113.94438’);</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15">
@@ -2205,7 +2192,7 @@
       </c>
       <c r="O11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10008,黄焖鸡米饭,鸡肉滑嫩、送凉茶,1,10008_01,18,味鲜生黄焖鸡米饭,科兴科学园东门原味街BG04,3.9,0755-26653002,快餐,15,22.54858,113.94449);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10008’,‘黄焖鸡米饭’,‘鸡肉滑嫩、送凉茶’,‘1’,‘10008_01’,‘18’,‘味鲜生黄焖鸡米饭’,‘科兴科学园东门原味街BG04’,‘3.9’,‘0755-26653002’,‘快餐’,‘15’,‘22.54858’,‘113.94449’);</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15">
@@ -2253,7 +2240,7 @@
       </c>
       <c r="O12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10010,兰州拉面,没啥可说的，都一个味。,1,10010_01,15,兰州拉面,科兴科学园(筷子私房菜) ,4,13266634998,面食,9,22.5484,113.94391);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10010’,‘兰州拉面’,‘没啥可说的，都一个味。’,‘1’,‘10010_01’,‘15’,‘兰州拉面’,‘科兴科学园(筷子私房菜) ’,‘4’,‘13266634998’,‘面食’,‘9’,‘22.5484’,‘113.94391’);</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15">
@@ -2301,7 +2288,7 @@
       </c>
       <c r="O13" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10011,吉野家牛肉饭,配上酱油和辣椒酱直接拌牛肉饭。,1,10011_01,18,吉野家,科兴科学园原味街G层肯德基左侧 ,4.1,0755-86564171/13480975954,日本料理,13,22.54818,113.94462);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10011’,‘吉野家牛肉饭’,‘配上酱油和辣椒酱直接拌牛肉饭。’,‘1’,‘10011_01’,‘18’,‘吉野家’,‘科兴科学园原味街G层肯德基左侧 ’,‘4.1’,‘0755-86564171/13480975954’,‘日本料理’,‘13’,‘22.54818’,‘113.94462’);</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15">
@@ -2349,7 +2336,7 @@
       </c>
       <c r="O14" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10012,泡菜牛丼,很大一碗肥牛盖饭。,1,10012_01,21,众品佳,科兴科学园,4,18128866707,快餐,8,22.54839,113.94398);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10012’,‘泡菜牛丼’,‘很大一碗肥牛盖饭。’,‘1’,‘10012_01’,‘21’,‘众品佳’,‘科兴科学园’,‘4’,‘18128866707’,‘快餐’,‘8’,‘22.54839’,‘113.94398’);</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15">
@@ -2397,7 +2384,7 @@
       </c>
       <c r="O15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10013,小米粥+包子,肠胃不好的时候喝点小米粥。,1,10013_01,18,阿泰包子,科兴科学园,4,18301210223,东北菜,17,22.54887,113.94359);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10013’,‘小米粥+包子’,‘肠胃不好的时候喝点小米粥。’,‘1’,‘10013_01’,‘18’,‘阿泰包子’,‘科兴科学园’,‘4’,‘18301210223’,‘东北菜’,‘17’,‘22.54887’,‘113.94359’);</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15">
@@ -2445,7 +2432,7 @@
       </c>
       <c r="O16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10014,招牌羊肉粉,羊肉不膻，推荐尝一下凉粉。,1,10014_01,25,黔派羊肉粉,科兴科学园原味街G层33铺(快乐园旁),4.2,13510262162,面粉,15,22.54858,113.94317);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10014’,‘招牌羊肉粉’,‘羊肉不膻，推荐尝一下凉粉。’,‘1’,‘10014_01’,‘25’,‘黔派羊肉粉’,‘科兴科学园原味街G层33铺(快乐园旁)’,‘4.2’,‘13510262162’,‘面粉’,‘15’,‘22.54858’,‘113.94317’);</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.5">
@@ -2493,7 +2480,7 @@
       </c>
       <c r="O17" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10018,原只椰子川贝炖土鸡汤,汤有点甜甜的，里面鸡肉很嫩很好吃 ，美容养颜。,1,10018_01,28,吃个汤,科兴科学园A栋G层10号铺,4,0755-86540135  13728866844,快餐,6,22.54934,113.94262);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10018’,‘原只椰子川贝炖土鸡汤’,‘汤有点甜甜的，里面鸡肉很嫩很好吃 ，美容养颜。’,‘1’,‘10018_01’,‘28’,‘吃个汤’,‘科兴科学园A栋G层10号铺’,‘4’,‘0755-86540135  13728866844’,‘快餐’,‘6’,‘22.54934’,‘113.94262’);</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1">
@@ -2541,8 +2528,8 @@
       </c>
       <c r="O18" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10019,小米粥+肉夹馍,陕西风味，肉夹馍很正宗。,1,10019_01,18,木马勺,科兴科学园北门A栋G层臻食荟美食广场大店-01 
-,3.5,17878228319 ,东北菜,15,22.54832,113.94286);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10019’,‘小米粥+肉夹馍’,‘陕西风味，肉夹馍很正宗。’,‘1’,‘10019_01’,‘18’,‘木马勺’,‘科兴科学园北门A栋G层臻食荟美食广场大店-01 
+’,‘3.5’,‘17878228319 ’,‘东北菜’,‘15’,‘22.54832’,‘113.94286’);</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15">
@@ -2590,7 +2577,7 @@
       </c>
       <c r="O19" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10020,火炙蟹棒寿司,蟹棒好吃,1,10020_01,32,樽上日本料理,科兴路科学园B1楼原味街C栋G层18A号铺 ,4,0755-23223228,日本料理,11,22.54746,113.94418);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10020’,‘火炙蟹棒寿司’,‘蟹棒好吃’,‘1’,‘10020_01’,‘32’,‘樽上日本料理’,‘科兴路科学园B1楼原味街C栋G层18A号铺 ’,‘4’,‘0755-23223228’,‘日本料理’,‘11’,‘22.54746’,‘113.94418’);</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15">
@@ -2638,7 +2625,7 @@
       </c>
       <c r="O20" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10021,三文鱼寿司,三文鱼很新鲜，晚上8点后吃可以打折。,1,10021_01,34,海鲑工坊,科兴科学园原味街A栋G层(华润万家超市旁) ,4.1,0755-89239887,日本料理,14,22.54735,113.94236);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10021’,‘三文鱼寿司’,‘三文鱼很新鲜，晚上8点后吃可以打折。’,‘1’,‘10021_01’,‘34’,‘海鲑工坊’,‘科兴科学园原味街A栋G层(华润万家超市旁) ’,‘4.1’,‘0755-89239887’,‘日本料理’,‘14’,‘22.54735’,‘113.94236’);</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.95" customHeight="1">
@@ -2686,7 +2673,7 @@
       </c>
       <c r="O21" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10022,原味螺蛳粉,酸辣味，汤也挺好喝的。,1,10022_01,18,辣椒王德沿桂林米粉,科兴科学园CG07,4,13528438856,面粉,15,22.54841,113.9442);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10022’,‘原味螺蛳粉’,‘酸辣味，汤也挺好喝的。’,‘1’,‘10022_01’,‘18’,‘辣椒王德沿桂林米粉’,‘科兴科学园CG07’,‘4’,‘13528438856’,‘面粉’,‘15’,‘22.54841’,‘113.9442’);</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15">
@@ -2734,7 +2721,7 @@
       </c>
       <c r="O22" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10023,海南鸡,鸡肉滑嫩而且还有鸡油冻、老板自制马来泡菜酸辣爽口。,1,10023_01,22,原林小品,科兴科学园原味街一楼,3.5,13670044172,东南亚口味,23,22.54735,113.94236);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10023’,‘海南鸡’,‘鸡肉滑嫩而且还有鸡油冻、老板自制马来泡菜酸辣爽口。’,‘1’,‘10023_01’,‘22’,‘原林小品’,‘科兴科学园原味街一楼’,‘3.5’,‘13670044172’,‘东南亚口味’,‘23’,‘22.54735’,‘113.94236’);</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15">
@@ -2782,7 +2769,7 @@
       </c>
       <c r="O23" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10024,金枪鱼三明治,减肥餐不错，蔬菜和三文鱼比较新鲜。,1,10024_01,22,赛百味,科兴科学园CG25A，C3出口旁边 ,4,13510240229,西餐,12,22.5474,113.94417);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10024’,‘金枪鱼三明治’,‘减肥餐不错，蔬菜和三文鱼比较新鲜。’,‘1’,‘10024_01’,‘22’,‘赛百味’,‘科兴科学园CG25A，C3出口旁边 ’,‘4’,‘13510240229’,‘西餐’,‘12’,‘22.5474’,‘113.94417’);</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15">
@@ -2830,7 +2817,7 @@
       </c>
       <c r="O24" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10025,金枪鱼紫菜包饭,喜欢紫菜、金枪鱼、饭团混合的味道,1,10025_01,30,金三顺紫菜包饭,科兴科学园BG-17C大食汇对面,3.7,13332980410,韩式,15,22.54887,113.94359);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10025’,‘金枪鱼紫菜包饭’,‘喜欢紫菜、金枪鱼、饭团混合的味道’,‘1’,‘10025_01’,‘30’,‘金三顺紫菜包饭’,‘科兴科学园BG-17C大食汇对面’,‘3.7’,‘13332980410’,‘韩式’,‘15’,‘22.54887’,‘113.94359’);</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15">
@@ -2878,7 +2865,7 @@
       </c>
       <c r="O25" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10026,鲜虾云吞,虾仁新鲜饱满。,1,10026_01,18,根味云吞,科兴科学园G层臻食荟内 ,4,13077881083,面食,8,22.54878,113.9422);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10026’,‘鲜虾云吞’,‘虾仁新鲜饱满。’,‘1’,‘10026_01’,‘18’,‘根味云吞’,‘科兴科学园G层臻食荟内 ’,‘4’,‘13077881083’,‘面食’,‘8’,‘22.54878’,‘113.9422’);</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15">
@@ -2926,7 +2913,7 @@
       </c>
       <c r="O26" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10027,6寸夏威夷披萨套餐,味道不错，份量适合两人吃。,1,10027_01,39,乐凯撒披萨,科兴科学园C栋G层17a号的商铺,4,0755-26609719,西餐,15,22.54762,113.94377);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10027’,‘6寸夏威夷披萨套餐’,‘味道不错，份量适合两人吃。’,‘1’,‘10027_01’,‘39’,‘乐凯撒披萨’,‘科兴科学园C栋G层17a号的商铺’,‘4’,‘0755-26609719’,‘西餐’,‘15’,‘22.54762’,‘113.94377’);</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15">
@@ -2974,7 +2961,7 @@
       </c>
       <c r="O27" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10028,招牌卤水猪耳饭,猪耳很下饭。,1,10028_01,18,花卷家食馆,科兴科学园B栋J层17A区,3.8,15914130082 ,快餐,10,22.54893,113.94351);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10028’,‘招牌卤水猪耳饭’,‘猪耳很下饭。’,‘1’,‘10028_01’,‘18’,‘花卷家食馆’,‘科兴科学园B栋J层17A区’,‘3.8’,‘15914130082 ’,‘快餐’,‘10’,‘22.54893’,‘113.94351’);</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15">
@@ -3019,7 +3006,7 @@
       </c>
       <c r="O28" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10030,猪扒炒出前一 丁,口感非常赞，面里混合紫菜和猪排的味道,1,10030_01,19,稻香,科兴科学园C栋3单元1层,4,,快餐,6,22.54764,113.94432);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10030’,‘猪扒炒出前一 丁’,‘口感非常赞，面里混合紫菜和猪排的味道’,‘1’,‘10030_01’,‘19’,‘稻香’,‘科兴科学园C栋3单元1层’,‘4’,‘’,‘快餐’,‘6’,‘22.54764’,‘113.94432’);</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15">
@@ -3064,7 +3051,7 @@
       </c>
       <c r="O29" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,food_score,tel,food_tag,food_score_people,latitude,longitude) values (10031,荷叶排骨饭,好吃，我朋友连续点了一周排骨饭,1,10031_01,18,稻香,科兴科学园C栋3单元1层,4.5,,快餐,9,22.54764,113.94432);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10031’,‘荷叶排骨饭’,‘好吃，我朋友连续点了一周排骨饭’,‘1’,‘10031_01’,‘18’,‘稻香’,‘科兴科学园C栋3单元1层’,‘4.5’,‘’,‘快餐’,‘9’,‘22.54764’,‘113.94432’);</v>
       </c>
     </row>
   </sheetData>

--- a/data/eatwhat.xlsx
+++ b/data/eatwhat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="food" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="206">
   <si>
     <t>id</t>
   </si>
@@ -58,33 +58,9 @@
     <t>name</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>shopName</t>
-  </si>
-  <si>
-    <t>describle</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
-    <t>baseScore</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
     <t>麻辣烫</t>
   </si>
   <si>
@@ -148,9 +124,6 @@
     <t>新明月水饺</t>
   </si>
   <si>
-    <t>0755-86525969 13902465558</t>
-  </si>
-  <si>
     <t>东北菜</t>
   </si>
   <si>
@@ -172,9 +145,6 @@
     <t>吉野家牛肉饭</t>
   </si>
   <si>
-    <t>0755-86564171/13480975954</t>
-  </si>
-  <si>
     <t xml:space="preserve">科兴科学园原味街G层肯德基左侧 </t>
   </si>
   <si>
@@ -214,9 +184,6 @@
     <t>小米粥+肉夹馍</t>
   </si>
   <si>
-    <t xml:space="preserve">17878228319 </t>
-  </si>
-  <si>
     <t>火炙蟹棒寿司</t>
   </si>
   <si>
@@ -298,414 +265,6 @@
     <t>科兴科学园B栋J层17A区</t>
   </si>
   <si>
-    <r>
-      <t>10001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10007</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10008</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10010</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10011</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10012</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10013</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10014</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10020</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10021</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10022</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10023</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10024</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10026</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10027</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10028</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>芝士太芒</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -724,40 +283,6 @@
   </si>
   <si>
     <t>Royaltea皇茶</t>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0001_01</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>很扎实的牛肉汉堡，薯条也很厚实。</t>
@@ -882,10 +407,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0755-86540135  13728866844</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>经度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -998,14 +519,6 @@
   </si>
   <si>
     <t>好吃，我朋友连续点了一周排骨饭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10031_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10030_01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1291,12 +804,140 @@
     <t>base_score_people</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>17878228319</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13728866844</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13480975954</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13902465558</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10001_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10002_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10003_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10004_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10005_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10006_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10007_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10008_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10010_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10011_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10012_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10013_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10014_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10018_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10019_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10020_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10021_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10022_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10023_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10024_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10025_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10026_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10027_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10028_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10030_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/10031_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/20000_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wx.kuuvv.com/images/foods/20001_01.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1331,6 +972,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1349,39 +999,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1656,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AS26" sqref="AS26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1666,12 +1318,12 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="19.375" customWidth="1"/>
     <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="64" customWidth="1"/>
     <col min="6" max="6" width="6.625" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="13.25" customWidth="1"/>
     <col min="9" max="9" width="10.125" customWidth="1"/>
-    <col min="10" max="10" width="17.375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="10.375" customWidth="1"/>
     <col min="12" max="12" width="13.5" customWidth="1"/>
     <col min="13" max="13" width="11.375" customWidth="1"/>
@@ -1707,1546 +1359,1644 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>142</v>
+      <c r="L1" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="M1" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="N1" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="4" t="s">
-        <v>195</v>
+      <c r="A2" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>198</v>
+      <c r="C2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15">
+      <c r="A4" s="6">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="6">
+        <v>35</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15">
-      <c r="A4">
-        <v>10001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4">
-        <v>4.2</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4">
+      <c r="K4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="6">
         <v>7</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="6">
         <v>22.54805</v>
       </c>
       <c r="N4">
         <v>113.94266</v>
       </c>
-      <c r="O4" s="10" t="str">
-        <f>CONCATENATE("insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘",A4,"’,‘",B4,"’,‘",C4,"’,‘",D4,"’,‘",E4,"’,‘",F4,"’,‘",G4,"’,‘",H4,"’,‘",I4,"’,‘",J4,"’,‘",K4,"’,‘",L4,"’,‘",M4,"’,‘",N4,"’);")</f>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10001’,‘麻辣烫’,‘一个人也可以吃的火锅。’,‘1’,‘10001_01’,‘35’,‘张亮麻辣烫’,‘科兴科学园原味街面包新语旁’,‘4.2’,‘0755-32823605’,‘麻辣’,‘7’,‘22.54805’,‘113.94266’);</v>
+      <c r="O4" s="4" t="str">
+        <f>CONCATENATE("insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"','",H4,"','",I4,"','",J4,"','",K4,"','",L4,"','",M4,"','",N4,"');")</f>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10001','麻辣烫','一个人也可以吃的火锅。','1','https://wx.kuuvv.com/images/foods/10001_01.jpg','35','张亮麻辣烫','科兴科学园原味街面包新语旁','4.2','0755-32823605','麻辣','7','22.54805','113.94266');</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>10002</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="6">
         <v>18</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="I5">
+      <c r="G5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="6">
         <v>4</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5">
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="6">
         <v>15</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="6">
         <v>22.548870000000001</v>
       </c>
       <c r="N5">
         <v>113.94359</v>
       </c>
-      <c r="O5" s="10" t="str">
-        <f t="shared" ref="O5:O29" si="0">CONCATENATE("insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘",A5,"’,‘",B5,"’,‘",C5,"’,‘",D5,"’,‘",E5,"’,‘",F5,"’,‘",G5,"’,‘",H5,"’,‘",I5,"’,‘",J5,"’,‘",K5,"’,‘",L5,"’,‘",M5,"’,‘",N5,"’);")</f>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10002’,‘哈帝斯培根牛肉堡’,‘很扎实的牛肉汉堡，薯条也很厚实。’,‘1’,‘10002_01’,‘18’,‘哈帝斯汉堡’,‘科兴科学园原味街BG17-D ’,‘4’,‘0755-86950460’,‘西餐’,‘15’,‘22.54887’,‘113.94359’);</v>
+      <c r="O5" s="4" t="str">
+        <f t="shared" ref="O5:O29" si="0">CONCATENATE("insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('",A5,"','",B5,"','",C5,"','",D5,"','",E5,"','",F5,"','",G5,"','",H5,"','",I5,"','",J5,"','",K5,"','",L5,"','",M5,"','",N5,"');")</f>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10002','哈帝斯培根牛肉堡','很扎实的牛肉汉堡，薯条也很厚实。','1','https://wx.kuuvv.com/images/foods/10002_01.jpg','18','哈帝斯汉堡','科兴科学园原味街BG17-D ','4','0755-86950460','西餐','15','22.54887','113.94359');</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>10003</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" s="6">
         <v>18</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6">
+      <c r="G6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="6">
         <v>4.3</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="2">
         <v>15712083177</v>
       </c>
-      <c r="K6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6">
+      <c r="K6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="6">
         <v>14</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="6">
         <v>22.548639999999999</v>
       </c>
       <c r="N6">
         <v>113.94413</v>
       </c>
-      <c r="O6" s="10" t="str">
+      <c r="O6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10003’,‘三鲜罐罐面’,‘吃面养胃，罐罐面里有基围虾、猪肝、火腿。’,‘1’,‘10003_01’,‘18’,‘连鼎香汤馆’,‘科兴科学园原味街’,‘4.3’,‘15712083177’,‘面’,‘14’,‘22.54864’,‘113.94413’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10003','三鲜罐罐面','吃面养胃，罐罐面里有基围虾、猪肝、火腿。','1','https://wx.kuuvv.com/images/foods/10003_01.jpg','18','连鼎香汤馆','科兴科学园原味街','4.3','15712083177','面','14','22.54864','113.94413');</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18" customHeight="1">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>10004</v>
       </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="6">
         <v>28</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7">
+      <c r="G7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7">
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="6">
         <v>6</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="6">
         <v>22.549150000000001</v>
       </c>
       <c r="N7">
         <v>113.94302</v>
       </c>
-      <c r="O7" s="10" t="str">
+      <c r="O7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10004’,‘肥牛过桥米线’,‘里面有肥牛、米线、泡菜、六种配菜。’,‘1’,‘10004_01’,‘28’,‘十秒到云南过桥米线’,‘科兴科学园原味街A栋G层38 ’,‘4.6’,‘13670048456’,‘创意菜’,‘6’,‘22.54915’,‘113.94302’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10004','肥牛过桥米线','里面有肥牛、米线、泡菜、六种配菜。','1','https://wx.kuuvv.com/images/foods/10004_01.jpg','28','十秒到云南过桥米线','科兴科学园原味街A栋G层38 ','4.6','13670048456','创意菜','6','22.54915','113.94302');</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>10005</v>
       </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="6">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="6">
         <v>18</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="I8">
+      <c r="G8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="6">
         <v>3.7</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8">
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="6">
         <v>15</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="6">
         <v>22.548179999999999</v>
       </c>
       <c r="N8">
         <v>113.94355</v>
       </c>
-      <c r="O8" s="10" t="str">
+      <c r="O8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10005’,‘奥尔良汉堡套餐’,‘汉堡、薯条、可乐。’,‘1’,‘10005_01’,‘18’,‘肯德基’,‘科兴科学园G层CG17b号 ’,‘3.7’,‘0755-26604883 ’,‘西餐’,‘15’,‘22.54818’,‘113.94355’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10005','奥尔良汉堡套餐','汉堡、薯条、可乐。','1','https://wx.kuuvv.com/images/foods/10005_01.jpg','18','肯德基','科兴科学园G层CG17b号 ','3.7','0755-26604883 ','西餐','15','22.54818','113.94355');</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>10006</v>
       </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="6">
         <v>16</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I9">
+      <c r="G9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="6">
         <v>4.3</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9">
+      <c r="J9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="6">
         <v>16</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="6">
         <v>22.547409999999999</v>
       </c>
       <c r="N9">
         <v>113.94414999999999</v>
       </c>
-      <c r="O9" s="10" t="str">
+      <c r="O9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10006’,‘鱼香肉丝饭’,‘口味适中，上菜块，价格便宜’,‘1’,‘10006_01’,‘16’,‘小米姑娘’,‘科兴科学园C栋G层23/24/25(腾讯食堂门口)’,‘4.3’,‘0755-86962055’,‘快餐’,‘16’,‘22.54741’,‘113.94415’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10006','鱼香肉丝饭','口味适中，上菜块，价格便宜','1','https://wx.kuuvv.com/images/foods/10006_01.jpg','16','小米姑娘','科兴科学园C栋G层23/24/25(腾讯食堂门口)','4.3','0755-86962055','快餐','16','22.54741','113.94415');</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>10007</v>
       </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F10" s="6">
         <v>16</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I10">
+      <c r="G10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="6">
         <v>4</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" t="s">
-        <v>43</v>
-      </c>
-      <c r="L10">
+        <v>177</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="6">
         <v>9</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="6">
         <v>22.548410000000001</v>
       </c>
       <c r="N10">
         <v>113.94438</v>
       </c>
-      <c r="O10" s="10" t="str">
+      <c r="O10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10007’,‘新明月水饺’,‘推荐香菜水饺+凉菜’,‘1’,‘10007_01’,‘16’,‘新明月水饺’,‘科兴科学园C栋G-03号 ’,‘4’,‘0755-86525969 13902465558’,‘东北菜’,‘9’,‘22.54841’,‘113.94438’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10007','新明月水饺','推荐香菜水饺+凉菜','1','https://wx.kuuvv.com/images/foods/10007_01.jpg','16','新明月水饺','科兴科学园C栋G-03号 ','4','13902465558','东北菜','9','22.54841','113.94438');</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>10008</v>
       </c>
-      <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11">
+      <c r="E11" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="6">
         <v>18</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I11">
+      <c r="G11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="6">
         <v>3.9</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11">
+      <c r="J11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="6">
         <v>15</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="6">
         <v>22.548580000000001</v>
       </c>
       <c r="N11">
         <v>113.94449</v>
       </c>
-      <c r="O11" s="10" t="str">
+      <c r="O11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10008’,‘黄焖鸡米饭’,‘鸡肉滑嫩、送凉茶’,‘1’,‘10008_01’,‘18’,‘味鲜生黄焖鸡米饭’,‘科兴科学园东门原味街BG04’,‘3.9’,‘0755-26653002’,‘快餐’,‘15’,‘22.54858’,‘113.94449’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10008','黄焖鸡米饭','鸡肉滑嫩、送凉茶','1','https://wx.kuuvv.com/images/foods/10008_01.jpg','18','味鲜生黄焖鸡米饭','科兴科学园东门原味街BG04','3.9','0755-26653002','快餐','15','22.54858','113.94449');</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15">
-      <c r="A12">
+      <c r="A12" s="6">
         <v>10010</v>
       </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="6">
         <v>15</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="I12">
+      <c r="G12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I12" s="6">
         <v>4</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12">
+      <c r="J12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="6">
         <v>9</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="6">
         <v>22.548400000000001</v>
       </c>
       <c r="N12">
         <v>113.94391</v>
       </c>
-      <c r="O12" s="10" t="str">
+      <c r="O12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10010’,‘兰州拉面’,‘没啥可说的，都一个味。’,‘1’,‘10010_01’,‘15’,‘兰州拉面’,‘科兴科学园(筷子私房菜) ’,‘4’,‘13266634998’,‘面食’,‘9’,‘22.5484’,‘113.94391’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10010','兰州拉面','没啥可说的，都一个味。','1','https://wx.kuuvv.com/images/foods/10010_01.jpg','15','兰州拉面','科兴科学园(筷子私房菜) ','4','13266634998','面食','9','22.5484','113.94391');</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15">
-      <c r="A13">
+      <c r="A13" s="6">
         <v>10011</v>
       </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="6">
         <v>18</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13">
+      <c r="G13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="6">
         <v>4.0999999999999996</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="K13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13">
+        <v>176</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" s="6">
         <v>13</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="6">
         <v>22.548179999999999</v>
       </c>
       <c r="N13">
         <v>113.94462</v>
       </c>
-      <c r="O13" s="10" t="str">
+      <c r="O13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10011’,‘吉野家牛肉饭’,‘配上酱油和辣椒酱直接拌牛肉饭。’,‘1’,‘10011_01’,‘18’,‘吉野家’,‘科兴科学园原味街G层肯德基左侧 ’,‘4.1’,‘0755-86564171/13480975954’,‘日本料理’,‘13’,‘22.54818’,‘113.94462’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10011','吉野家牛肉饭','配上酱油和辣椒酱直接拌牛肉饭。','1','https://wx.kuuvv.com/images/foods/10011_01.jpg','18','吉野家','科兴科学园原味街G层肯德基左侧 ','4.1','13480975954','日本料理','13','22.54818','113.94462');</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15">
-      <c r="A14">
+      <c r="A14" s="6">
         <v>10012</v>
       </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" s="6">
         <v>1</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="6">
         <v>21</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14">
+      <c r="G14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="6">
         <v>4</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="2">
         <v>18128866707</v>
       </c>
-      <c r="K14" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14">
+      <c r="K14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="6">
         <v>8</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="6">
         <v>22.548390000000001</v>
       </c>
       <c r="N14">
         <v>113.94398</v>
       </c>
-      <c r="O14" s="10" t="str">
+      <c r="O14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10012’,‘泡菜牛丼’,‘很大一碗肥牛盖饭。’,‘1’,‘10012_01’,‘21’,‘众品佳’,‘科兴科学园’,‘4’,‘18128866707’,‘快餐’,‘8’,‘22.54839’,‘113.94398’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10012','泡菜牛丼','很大一碗肥牛盖饭。','1','https://wx.kuuvv.com/images/foods/10012_01.jpg','21','众品佳','科兴科学园','4','18128866707','快餐','8','22.54839','113.94398');</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15">
-      <c r="A15">
+      <c r="A15" s="6">
         <v>10013</v>
       </c>
-      <c r="B15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F15" s="6">
         <v>18</v>
       </c>
-      <c r="G15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="I15">
+      <c r="G15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I15" s="6">
         <v>4</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15">
+      <c r="J15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="6">
         <v>17</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="6">
         <v>22.548870000000001</v>
       </c>
       <c r="N15">
         <v>113.94359</v>
       </c>
-      <c r="O15" s="10" t="str">
+      <c r="O15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10013’,‘小米粥+包子’,‘肠胃不好的时候喝点小米粥。’,‘1’,‘10013_01’,‘18’,‘阿泰包子’,‘科兴科学园’,‘4’,‘18301210223’,‘东北菜’,‘17’,‘22.54887’,‘113.94359’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10013','小米粥+包子','肠胃不好的时候喝点小米粥。','1','https://wx.kuuvv.com/images/foods/10013_01.jpg','18','阿泰包子','科兴科学园','4','18301210223','东北菜','17','22.54887','113.94359');</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15">
-      <c r="A16">
+      <c r="A16" s="6">
         <v>10014</v>
       </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16">
+      <c r="B16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="6">
         <v>25</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16">
+      <c r="G16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="6">
         <v>4.2</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L16">
+      <c r="J16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" s="6">
         <v>15</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="6">
         <v>22.548580000000001</v>
       </c>
       <c r="N16">
         <v>113.94316999999999</v>
       </c>
-      <c r="O16" s="10" t="str">
+      <c r="O16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10014’,‘招牌羊肉粉’,‘羊肉不膻，推荐尝一下凉粉。’,‘1’,‘10014_01’,‘25’,‘黔派羊肉粉’,‘科兴科学园原味街G层33铺(快乐园旁)’,‘4.2’,‘13510262162’,‘面粉’,‘15’,‘22.54858’,‘113.94317’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10014','招牌羊肉粉','羊肉不膻，推荐尝一下凉粉。','1','https://wx.kuuvv.com/images/foods/10014_01.jpg','25','黔派羊肉粉','科兴科学园原味街G层33铺(快乐园旁)','4.2','13510262162','面粉','15','22.54858','113.94317');</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="16.5">
-      <c r="A17">
+      <c r="A17" s="6">
         <v>10018</v>
       </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17">
+      <c r="B17" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="6">
         <v>28</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I17">
+      <c r="G17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I17" s="6">
         <v>4</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="K17" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17">
+        <v>175</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="6">
         <v>6</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="6">
         <v>22.549340000000001</v>
       </c>
       <c r="N17">
         <v>113.94262000000001</v>
       </c>
-      <c r="O17" s="10" t="str">
+      <c r="O17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10018’,‘原只椰子川贝炖土鸡汤’,‘汤有点甜甜的，里面鸡肉很嫩很好吃 ，美容养颜。’,‘1’,‘10018_01’,‘28’,‘吃个汤’,‘科兴科学园A栋G层10号铺’,‘4’,‘0755-86540135  13728866844’,‘快餐’,‘6’,‘22.54934’,‘113.94262’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10018','原只椰子川贝炖土鸡汤','汤有点甜甜的，里面鸡肉很嫩很好吃 ，美容养颜。','1','https://wx.kuuvv.com/images/foods/10018_01.jpg','28','吃个汤','科兴科学园A栋G层10号铺','4','13728866844','快餐','6','22.54934','113.94262');</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1">
-      <c r="A18">
+      <c r="A18" s="6">
         <v>10019</v>
       </c>
-      <c r="B18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18">
+      <c r="B18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="6">
         <v>1</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F18" s="6">
         <v>18</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="I18">
+      <c r="G18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="6">
         <v>3.5</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18">
+        <v>174</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="6">
         <v>15</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="6">
         <v>22.54832</v>
       </c>
       <c r="N18">
         <v>113.94286</v>
       </c>
-      <c r="O18" s="10" t="str">
+      <c r="O18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10019’,‘小米粥+肉夹馍’,‘陕西风味，肉夹馍很正宗。’,‘1’,‘10019_01’,‘18’,‘木马勺’,‘科兴科学园北门A栋G层臻食荟美食广场大店-01 
-’,‘3.5’,‘17878228319 ’,‘东北菜’,‘15’,‘22.54832’,‘113.94286’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10019','小米粥+肉夹馍','陕西风味，肉夹馍很正宗。','1','https://wx.kuuvv.com/images/foods/10019_01.jpg','18','木马勺','科兴科学园北门A栋G层臻食荟美食广场大店-01 
+','3.5','17878228319','东北菜','15','22.54832','113.94286');</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15">
-      <c r="A19">
+      <c r="A19" s="6">
         <v>10020</v>
       </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19">
+      <c r="B19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="6">
         <v>1</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19">
+      <c r="E19" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F19" s="6">
         <v>32</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H19" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19">
+      <c r="G19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="6">
         <v>4</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19">
+      <c r="J19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19" s="6">
         <v>11</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="6">
         <v>22.547460000000001</v>
       </c>
       <c r="N19">
         <v>113.94418</v>
       </c>
-      <c r="O19" s="10" t="str">
+      <c r="O19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10020’,‘火炙蟹棒寿司’,‘蟹棒好吃’,‘1’,‘10020_01’,‘32’,‘樽上日本料理’,‘科兴路科学园B1楼原味街C栋G层18A号铺 ’,‘4’,‘0755-23223228’,‘日本料理’,‘11’,‘22.54746’,‘113.94418’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10020','火炙蟹棒寿司','蟹棒好吃','1','https://wx.kuuvv.com/images/foods/10020_01.jpg','32','樽上日本料理','科兴路科学园B1楼原味街C栋G层18A号铺 ','4','0755-23223228','日本料理','11','22.54746','113.94418');</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15">
-      <c r="A20">
+      <c r="A20" s="6">
         <v>10021</v>
       </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20">
+      <c r="B20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="6">
         <v>34</v>
       </c>
-      <c r="G20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" t="s">
-        <v>71</v>
-      </c>
-      <c r="I20">
+      <c r="G20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K20" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20">
+      <c r="J20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20" s="6">
         <v>14</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="6">
         <v>22.547350000000002</v>
       </c>
       <c r="N20">
         <v>113.94235999999999</v>
       </c>
-      <c r="O20" s="10" t="str">
+      <c r="O20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10021’,‘三文鱼寿司’,‘三文鱼很新鲜，晚上8点后吃可以打折。’,‘1’,‘10021_01’,‘34’,‘海鲑工坊’,‘科兴科学园原味街A栋G层(华润万家超市旁) ’,‘4.1’,‘0755-89239887’,‘日本料理’,‘14’,‘22.54735’,‘113.94236’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10021','三文鱼寿司','三文鱼很新鲜，晚上8点后吃可以打折。','1','https://wx.kuuvv.com/images/foods/10021_01.jpg','34','海鲑工坊','科兴科学园原味街A栋G层(华润万家超市旁) ','4.1','0755-89239887','日本料理','14','22.54735','113.94236');</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="18.95" customHeight="1">
-      <c r="A21">
+      <c r="A21" s="6">
         <v>10022</v>
       </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21">
+      <c r="B21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="6">
         <v>1</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21">
+      <c r="E21" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="6">
         <v>18</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21">
+      <c r="G21" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="6">
         <v>4</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K21" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21">
+      <c r="J21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="6">
         <v>15</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="6">
         <v>22.548410000000001</v>
       </c>
       <c r="N21">
         <v>113.9442</v>
       </c>
-      <c r="O21" s="10" t="str">
+      <c r="O21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10022’,‘原味螺蛳粉’,‘酸辣味，汤也挺好喝的。’,‘1’,‘10022_01’,‘18’,‘辣椒王德沿桂林米粉’,‘科兴科学园CG07’,‘4’,‘13528438856’,‘面粉’,‘15’,‘22.54841’,‘113.9442’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10022','原味螺蛳粉','酸辣味，汤也挺好喝的。','1','https://wx.kuuvv.com/images/foods/10022_01.jpg','18','辣椒王德沿桂林米粉','科兴科学园CG07','4','13528438856','面粉','15','22.54841','113.9442');</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15">
-      <c r="A22">
+      <c r="A22" s="6">
         <v>10023</v>
       </c>
-      <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22">
+      <c r="B22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="6">
         <v>1</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="6">
         <v>22</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="I22">
+      <c r="G22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" s="6">
         <v>3.5</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L22">
+      <c r="J22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="6">
         <v>23</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="6">
         <v>22.547350000000002</v>
       </c>
       <c r="N22">
         <v>113.94235999999999</v>
       </c>
-      <c r="O22" s="10" t="str">
+      <c r="O22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10023’,‘海南鸡’,‘鸡肉滑嫩而且还有鸡油冻、老板自制马来泡菜酸辣爽口。’,‘1’,‘10023_01’,‘22’,‘原林小品’,‘科兴科学园原味街一楼’,‘3.5’,‘13670044172’,‘东南亚口味’,‘23’,‘22.54735’,‘113.94236’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10023','海南鸡','鸡肉滑嫩而且还有鸡油冻、老板自制马来泡菜酸辣爽口。','1','https://wx.kuuvv.com/images/foods/10023_01.jpg','22','原林小品','科兴科学园原味街一楼','3.5','13670044172','东南亚口味','23','22.54735','113.94236');</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15">
-      <c r="A23">
+      <c r="A23" s="6">
         <v>10024</v>
       </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23">
+      <c r="B23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="6">
         <v>1</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="6">
         <v>22</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="I23">
+      <c r="G23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="6">
         <v>4</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K23" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23">
+      <c r="J23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="6">
         <v>12</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="6">
         <v>22.5474</v>
       </c>
       <c r="N23">
         <v>113.94417</v>
       </c>
-      <c r="O23" s="10" t="str">
+      <c r="O23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10024’,‘金枪鱼三明治’,‘减肥餐不错，蔬菜和三文鱼比较新鲜。’,‘1’,‘10024_01’,‘22’,‘赛百味’,‘科兴科学园CG25A，C3出口旁边 ’,‘4’,‘13510240229’,‘西餐’,‘12’,‘22.5474’,‘113.94417’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10024','金枪鱼三明治','减肥餐不错，蔬菜和三文鱼比较新鲜。','1','https://wx.kuuvv.com/images/foods/10024_01.jpg','22','赛百味','科兴科学园CG25A，C3出口旁边 ','4','13510240229','西餐','12','22.5474','113.94417');</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15">
-      <c r="A24">
+      <c r="A24" s="6">
         <v>10025</v>
       </c>
-      <c r="B24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24">
+      <c r="B24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="6">
         <v>1</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24">
+      <c r="E24" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="6">
         <v>30</v>
       </c>
-      <c r="G24" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I24">
+      <c r="G24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" s="6">
         <v>3.7</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K24" t="s">
-        <v>83</v>
-      </c>
-      <c r="L24">
+      <c r="J24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="6">
         <v>15</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="6">
         <v>22.548870000000001</v>
       </c>
       <c r="N24">
         <v>113.94359</v>
       </c>
-      <c r="O24" s="10" t="str">
+      <c r="O24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10025’,‘金枪鱼紫菜包饭’,‘喜欢紫菜、金枪鱼、饭团混合的味道’,‘1’,‘10025_01’,‘30’,‘金三顺紫菜包饭’,‘科兴科学园BG-17C大食汇对面’,‘3.7’,‘13332980410’,‘韩式’,‘15’,‘22.54887’,‘113.94359’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10025','金枪鱼紫菜包饭','喜欢紫菜、金枪鱼、饭团混合的味道','1','https://wx.kuuvv.com/images/foods/10025_01.jpg','30','金三顺紫菜包饭','科兴科学园BG-17C大食汇对面','3.7','13332980410','韩式','15','22.54887','113.94359');</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15">
-      <c r="A25">
+      <c r="A25" s="6">
         <v>10026</v>
       </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25">
+      <c r="B25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="6">
         <v>1</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25">
+      <c r="E25" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F25" s="6">
         <v>18</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H25" t="s">
-        <v>86</v>
-      </c>
-      <c r="I25">
+      <c r="G25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I25" s="6">
         <v>4</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K25" t="s">
-        <v>48</v>
-      </c>
-      <c r="L25">
+      <c r="J25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="6">
         <v>8</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="6">
         <v>22.548780000000001</v>
       </c>
       <c r="N25">
         <v>113.9422</v>
       </c>
-      <c r="O25" s="10" t="str">
+      <c r="O25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10026’,‘鲜虾云吞’,‘虾仁新鲜饱满。’,‘1’,‘10026_01’,‘18’,‘根味云吞’,‘科兴科学园G层臻食荟内 ’,‘4’,‘13077881083’,‘面食’,‘8’,‘22.54878’,‘113.9422’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10026','鲜虾云吞','虾仁新鲜饱满。','1','https://wx.kuuvv.com/images/foods/10026_01.jpg','18','根味云吞','科兴科学园G层臻食荟内 ','4','13077881083','面食','8','22.54878','113.9422');</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15">
-      <c r="A26">
+      <c r="A26" s="6">
         <v>10027</v>
       </c>
-      <c r="B26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26">
+      <c r="B26" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="6">
         <v>1</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26">
+      <c r="E26" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" s="6">
         <v>39</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="I26">
+      <c r="G26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" s="6">
         <v>4</v>
       </c>
-      <c r="J26" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K26" t="s">
-        <v>28</v>
-      </c>
-      <c r="L26">
+      <c r="J26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26" s="6">
         <v>15</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="6">
         <v>22.547619999999998</v>
       </c>
       <c r="N26">
         <v>113.94377</v>
       </c>
-      <c r="O26" s="10" t="str">
+      <c r="O26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10027’,‘6寸夏威夷披萨套餐’,‘味道不错，份量适合两人吃。’,‘1’,‘10027_01’,‘39’,‘乐凯撒披萨’,‘科兴科学园C栋G层17a号的商铺’,‘4’,‘0755-26609719’,‘西餐’,‘15’,‘22.54762’,‘113.94377’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10027','6寸夏威夷披萨套餐','味道不错，份量适合两人吃。','1','https://wx.kuuvv.com/images/foods/10027_01.jpg','39','乐凯撒披萨','科兴科学园C栋G层17a号的商铺','4','0755-26609719','西餐','15','22.54762','113.94377');</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15">
-      <c r="A27">
+      <c r="A27" s="6">
         <v>10028</v>
       </c>
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27">
+      <c r="B27" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="6">
         <v>1</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27">
+      <c r="E27" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" s="6">
         <v>18</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H27" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27">
+      <c r="G27" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="6">
         <v>3.8</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K27" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27">
+      <c r="J27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" s="6">
         <v>10</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="6">
         <v>22.548929999999999</v>
       </c>
       <c r="N27">
         <v>113.94351</v>
       </c>
-      <c r="O27" s="10" t="str">
+      <c r="O27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10028’,‘招牌卤水猪耳饭’,‘猪耳很下饭。’,‘1’,‘10028_01’,‘18’,‘花卷家食馆’,‘科兴科学园B栋J层17A区’,‘3.8’,‘15914130082 ’,‘快餐’,‘10’,‘22.54893’,‘113.94351’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10028','招牌卤水猪耳饭','猪耳很下饭。','1','https://wx.kuuvv.com/images/foods/10028_01.jpg','18','花卷家食馆','科兴科学园B栋J层17A区','3.8','15914130082 ','快餐','10','22.54893','113.94351');</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15">
-      <c r="A28">
+      <c r="A28" s="6">
         <v>10030</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28">
+      <c r="B28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="6">
         <v>1</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F28">
+      <c r="E28" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" s="6">
         <v>19</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H28" t="s">
-        <v>175</v>
-      </c>
-      <c r="I28">
+      <c r="G28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I28" s="6">
         <v>4</v>
       </c>
-      <c r="K28" t="s">
-        <v>40</v>
-      </c>
-      <c r="L28">
+      <c r="K28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" s="6">
         <v>6</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="6">
         <v>22.547640000000001</v>
       </c>
       <c r="N28">
         <v>113.94432</v>
       </c>
-      <c r="O28" s="10" t="str">
+      <c r="O28" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10030’,‘猪扒炒出前一 丁’,‘口感非常赞，面里混合紫菜和猪排的味道’,‘1’,‘10030_01’,‘19’,‘稻香’,‘科兴科学园C栋3单元1层’,‘4’,‘’,‘快餐’,‘6’,‘22.54764’,‘113.94432’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10030','猪扒炒出前一 丁','口感非常赞，面里混合紫菜和猪排的味道','1','https://wx.kuuvv.com/images/foods/10030_01.jpg','19','稻香','科兴科学园C栋3单元1层','4','','快餐','6','22.54764','113.94432');</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15">
-      <c r="A29">
+      <c r="A29" s="6">
         <v>10031</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29">
+      <c r="B29" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="6">
         <v>1</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F29">
+      <c r="E29" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="6">
         <v>18</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H29" t="s">
-        <v>175</v>
-      </c>
-      <c r="I29">
+      <c r="G29" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="I29" s="6">
         <v>4.5</v>
       </c>
-      <c r="K29" t="s">
-        <v>40</v>
-      </c>
-      <c r="L29">
+      <c r="K29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" s="6">
         <v>9</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="6">
         <v>22.547640000000001</v>
       </c>
       <c r="N29">
         <v>113.94432</v>
       </c>
-      <c r="O29" s="10" t="str">
+      <c r="O29" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values (‘10031’,‘荷叶排骨饭’,‘好吃，我朋友连续点了一周排骨饭’,‘1’,‘10031_01’,‘18’,‘稻香’,‘科兴科学园C栋3单元1层’,‘4.5’,‘’,‘快餐’,‘9’,‘22.54764’,‘113.94432’);</v>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('10031','荷叶排骨饭','好吃，我朋友连续点了一周排骨饭','1','https://wx.kuuvv.com/images/foods/10031_01.jpg','18','稻香','科兴科学园C栋3单元1层','4.5','','快餐','9','22.54764','113.94432');</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3"/>
+    <hyperlink ref="E7" r:id="rId4"/>
+    <hyperlink ref="E8" r:id="rId5"/>
+    <hyperlink ref="E9" r:id="rId6"/>
+    <hyperlink ref="E10" r:id="rId7"/>
+    <hyperlink ref="E11" r:id="rId8"/>
+    <hyperlink ref="E13" r:id="rId9"/>
+    <hyperlink ref="E14" r:id="rId10"/>
+    <hyperlink ref="E15" r:id="rId11"/>
+    <hyperlink ref="E16" r:id="rId12"/>
+    <hyperlink ref="E17" r:id="rId13"/>
+    <hyperlink ref="E18" r:id="rId14"/>
+    <hyperlink ref="E19" r:id="rId15"/>
+    <hyperlink ref="E20" r:id="rId16"/>
+    <hyperlink ref="E21" r:id="rId17"/>
+    <hyperlink ref="E22" r:id="rId18"/>
+    <hyperlink ref="E23" r:id="rId19"/>
+    <hyperlink ref="E24" r:id="rId20"/>
+    <hyperlink ref="E25" r:id="rId21"/>
+    <hyperlink ref="E26" r:id="rId22"/>
+    <hyperlink ref="E27" r:id="rId23"/>
+    <hyperlink ref="E28" r:id="rId24"/>
+    <hyperlink ref="E29" r:id="rId25"/>
+    <hyperlink ref="E12" r:id="rId26"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="O4" sqref="O4:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="28.625" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="19.125" customWidth="1"/>
-    <col min="10" max="10" width="17.5" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="17.5" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="9" max="10" width="10.375" customWidth="1"/>
+    <col min="11" max="11" width="5.75" customWidth="1"/>
+    <col min="12" max="12" width="6.5" customWidth="1"/>
+    <col min="13" max="14" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>144</v>
-      </c>
-      <c r="M1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="L1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6">
+        <v>20000</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="6">
+        <v>16</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="J4" s="6">
+        <v>13316512643</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" s="6">
+        <v>21</v>
+      </c>
+      <c r="M4" s="6">
+        <v>22.549199999999999</v>
+      </c>
+      <c r="N4" s="6">
+        <v>113.94293</v>
+      </c>
+      <c r="O4" t="str">
+        <f>CONCATENATE("insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('",A4,"','",B4,"','",C4,"','",D4,"','",E4,"','",F4,"','",G4,"','",H4,"','",I4,"','",J4,"','",K4,"','",L4,"','",M4,"','",N4,"');")</f>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('20000','芝士太芒','大号芒果杯','2','https://wx.kuuvv.com/images/foods/20000_01.jpg','16','Royaltea皇茶','科兴科学园原味街','4.3','13316512643','芒果','21','22.5492','113.94293');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="6">
+        <v>20001</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F5" s="6">
+        <v>16</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J5" s="6">
+        <v>13823617006</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3">
-        <v>20000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3">
-        <v>16</v>
-      </c>
-      <c r="G3">
-        <v>4.3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3">
-        <v>13316512643</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>117</v>
-      </c>
-      <c r="L3">
-        <v>22.549199999999999</v>
-      </c>
-      <c r="M3">
-        <v>113.94293</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
-        <v>20001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>4.5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>123</v>
-      </c>
-      <c r="I4">
-        <v>13823617006</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4">
+      <c r="M5" s="6">
         <v>22.54862</v>
       </c>
-      <c r="M4">
+      <c r="N5" s="6">
         <v>113.94459999999999</v>
+      </c>
+      <c r="O5" t="str">
+        <f>CONCATENATE("insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('",A5,"','",B5,"','",C5,"','",D5,"','",E5,"','",F5,"','",G5,"','",H5,"','",I5,"','",J5,"','",K5,"','",L5,"','",M5,"','",N5,"');")</f>
+        <v>insert into food_info(food_id,name,food_desc,food_type,pic_list,price,shop_name,shop_address,base_score,tel,food_tag,base_score_people,latitude,longitude) values ('20001','百香果益力多','酸酸的，百香果的籽可以吃','2','https://wx.kuuvv.com/images/foods/20001_01.jpg','16','云顶新茶','科兴科学园原味街','4.1','13823617006','','14','22.54862','113.9446');</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>